--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>　　新型コロナウイルス感染症に係る「帰国者・接触者相談センター」</t>
     <phoneticPr fontId="3"/>
@@ -201,7 +201,14 @@
     <t>木</t>
   </si>
   <si>
-    <t>　　の対応状況について（県合計・令和２年10月29日（木）まで）</t>
+    <t>10月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　の対応状況について（県合計・令和２年11月5日（木）まで）</t>
     <rPh sb="12" eb="13">
       <t>ケン</t>
     </rPh>
@@ -211,7 +218,7 @@
     <rPh sb="16" eb="18">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="26" eb="27">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -401,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +485,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,7 +794,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -800,32 +810,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
@@ -843,10 +853,10 @@
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -857,10 +867,10 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -871,10 +881,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -885,10 +895,10 @@
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -899,10 +909,10 @@
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -913,10 +923,10 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -927,10 +937,10 @@
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -941,10 +951,10 @@
     </row>
     <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -953,320 +963,314 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="21">
-        <v>82</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13"/>
+    <row r="13" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="5">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="21">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E14" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
-      <c r="B15" s="4">
-        <v>44107</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="22">
-        <v>53</v>
-      </c>
-      <c r="E15" s="22">
-        <v>2</v>
-      </c>
-      <c r="F15" s="14"/>
+      <c r="B15" s="5">
+        <v>44106</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="21">
+        <v>106</v>
+      </c>
+      <c r="E15" s="21">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="4">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="22">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E16" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
-      <c r="B17" s="5">
-        <v>44109</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="21">
-        <v>140</v>
-      </c>
-      <c r="E17" s="21">
-        <v>7</v>
-      </c>
-      <c r="F17" s="13"/>
+      <c r="B17" s="4">
+        <v>44108</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="22">
+        <v>43</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="5">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="21">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E18" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
       <c r="B19" s="5">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="21">
         <v>113</v>
       </c>
       <c r="E19" s="21">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="19"/>
       <c r="B20" s="5">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12">
-        <v>135</v>
-      </c>
-      <c r="E20" s="12">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D20" s="21">
+        <v>113</v>
+      </c>
+      <c r="E20" s="21">
+        <v>13</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="19"/>
       <c r="B21" s="5">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D21" s="12">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E21" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
-      <c r="B22" s="4">
-        <v>44114</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="24">
-        <v>70</v>
-      </c>
-      <c r="E22" s="24">
-        <v>24</v>
-      </c>
-      <c r="F22" s="14"/>
+      <c r="B22" s="5">
+        <v>44113</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="12">
+        <v>107</v>
+      </c>
+      <c r="E22" s="12">
+        <v>14</v>
+      </c>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
       <c r="B23" s="4">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="24">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E23" s="24">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="19"/>
-      <c r="B24" s="5">
-        <v>44116</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="12">
-        <v>175</v>
-      </c>
-      <c r="E24" s="12">
-        <v>11</v>
-      </c>
-      <c r="F24" s="13"/>
+      <c r="B24" s="4">
+        <v>44115</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="24">
+        <v>66</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="19"/>
       <c r="B25" s="5">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="12">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="E25" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="19"/>
       <c r="B26" s="5">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="12">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="E26" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="19"/>
       <c r="B27" s="5">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="12">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E27" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
       <c r="B28" s="5">
-        <v>44120</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>19</v>
+        <v>44119</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D28" s="12">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
-      <c r="B29" s="4">
-        <v>44121</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="24">
-        <v>64</v>
-      </c>
-      <c r="E29" s="24">
-        <v>3</v>
-      </c>
-      <c r="F29" s="14"/>
+      <c r="B29" s="5">
+        <v>44120</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="12">
+        <v>97</v>
+      </c>
+      <c r="E29" s="12">
+        <v>13</v>
+      </c>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="4">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="24">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E30" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="19"/>
-      <c r="B31" s="5">
-        <v>44123</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="12">
-        <v>114</v>
-      </c>
-      <c r="E31" s="12">
-        <v>2</v>
-      </c>
-      <c r="F31" s="13"/>
+      <c r="B31" s="4">
+        <v>44122</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="24">
+        <v>47</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="19"/>
       <c r="B32" s="5">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="12">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E32" s="12">
         <v>2</v>
@@ -1276,125 +1280,125 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="19"/>
       <c r="B33" s="5">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="12">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E33" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="19"/>
       <c r="B34" s="5">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D34" s="12">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E34" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="19"/>
       <c r="B35" s="5">
-        <v>44127</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>25</v>
+        <v>44126</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="12">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="B36" s="5">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="12">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="E36" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="19"/>
       <c r="B37" s="5">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="12">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E37" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="19"/>
       <c r="B38" s="5">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="12">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="E38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="19"/>
       <c r="B39" s="5">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="12">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E39" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="5">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="12">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E40" s="12">
         <v>2</v>
@@ -1404,79 +1408,183 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="19"/>
       <c r="B41" s="5">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="12">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E41" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="19"/>
       <c r="B42" s="5">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="D42" s="12">
+        <v>86</v>
+      </c>
+      <c r="E42" s="12">
+        <v>6</v>
+      </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="19"/>
       <c r="B43" s="5">
+        <v>44134</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="12">
+        <v>81</v>
+      </c>
+      <c r="E43" s="12">
+        <v>3</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="19"/>
+      <c r="B44" s="5">
         <v>44135</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C44" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="27" t="s">
+      <c r="D44" s="12">
+        <v>47</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="19"/>
+      <c r="B45" s="5">
+        <v>44136</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="12">
+        <v>51</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="19"/>
+      <c r="B46" s="5">
+        <v>44137</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="12">
+        <v>134</v>
+      </c>
+      <c r="E46" s="12">
+        <v>4</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="19"/>
+      <c r="B47" s="5">
+        <v>44138</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="12">
+        <v>50</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="19"/>
+      <c r="B48" s="5">
+        <v>44139</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="12">
+        <v>102</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="19"/>
+      <c r="B49" s="5">
+        <v>44140</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="12">
+        <v>98</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="20"/>
+      <c r="B50" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="13">
-        <f>SUM(D5:D41)</f>
-        <v>42622</v>
-      </c>
-      <c r="E44" s="13">
-        <f>SUM(E5:E41)</f>
-        <v>4563</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="13">
+        <f>SUM(D5:D49)</f>
+        <v>43185</v>
+      </c>
+      <c r="E50" s="13">
+        <f>SUM(E5:E49)</f>
+        <v>4560</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B44:C44"/>
+  <mergeCells count="13">
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1488,10 +1596,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
-  <si>
-    <t>　　新型コロナウイルス感染症に係る「帰国者・接触者相談センター」</t>
-    <phoneticPr fontId="3"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -208,18 +204,44 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　の対応状況について（県合計・令和２年11月5日（木）まで）</t>
-    <rPh sb="12" eb="13">
+    <t>　　（県合計・令和２年11月12日（木）まで）</t>
+    <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="4" eb="6">
       <t>ゴウケイ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="18" eb="19">
       <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　新型コロナウイルス感染症に係る「新潟県新型コロナ受診・相談センター
+（旧帰国者・接触者相談センター）」の対応状況について</t>
+    <rPh sb="18" eb="20">
+      <t>ニイガタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>キコクシャ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -408,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +515,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,6 +526,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,11 +822,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -809,54 +837,54 @@
     <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="30"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -867,10 +895,10 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="29"/>
+      <c r="B6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -881,10 +909,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="29"/>
+      <c r="B7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -895,10 +923,10 @@
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
-      <c r="B8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="29"/>
+      <c r="B8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -909,10 +937,10 @@
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
-      <c r="B9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="29"/>
+      <c r="B9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="30"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -923,10 +951,10 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
-      <c r="B10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="29"/>
+      <c r="B10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="30"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -937,10 +965,10 @@
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
-      <c r="B11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="29"/>
+      <c r="B11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="30"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -951,10 +979,10 @@
     </row>
     <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
-      <c r="B12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="29"/>
+      <c r="B12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="30"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -965,10 +993,10 @@
     </row>
     <row r="13" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
-      <c r="B13" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="29"/>
+      <c r="B13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
@@ -979,7 +1007,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="21">
         <v>82</v>
@@ -995,7 +1023,7 @@
         <v>44106</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="21">
         <v>106</v>
@@ -1011,7 +1039,7 @@
         <v>44107</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="22">
         <v>53</v>
@@ -1027,7 +1055,7 @@
         <v>44108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="22">
         <v>43</v>
@@ -1043,7 +1071,7 @@
         <v>44109</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="21">
         <v>140</v>
@@ -1059,7 +1087,7 @@
         <v>44110</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="21">
         <v>113</v>
@@ -1075,7 +1103,7 @@
         <v>44111</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="21">
         <v>113</v>
@@ -1091,7 +1119,7 @@
         <v>44112</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="12">
         <v>135</v>
@@ -1107,7 +1135,7 @@
         <v>44113</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12">
         <v>107</v>
@@ -1123,7 +1151,7 @@
         <v>44114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="24">
         <v>70</v>
@@ -1139,7 +1167,7 @@
         <v>44115</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="24">
         <v>66</v>
@@ -1155,7 +1183,7 @@
         <v>44116</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="12">
         <v>175</v>
@@ -1171,7 +1199,7 @@
         <v>44117</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="12">
         <v>118</v>
@@ -1187,7 +1215,7 @@
         <v>44118</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="12">
         <v>83</v>
@@ -1203,7 +1231,7 @@
         <v>44119</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="12">
         <v>95</v>
@@ -1219,7 +1247,7 @@
         <v>44120</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="12">
         <v>97</v>
@@ -1235,7 +1263,7 @@
         <v>44121</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="24">
         <v>64</v>
@@ -1251,7 +1279,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="24">
         <v>47</v>
@@ -1267,7 +1295,7 @@
         <v>44123</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="12">
         <v>114</v>
@@ -1283,7 +1311,7 @@
         <v>44124</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="12">
         <v>97</v>
@@ -1299,7 +1327,7 @@
         <v>44125</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="12">
         <v>116</v>
@@ -1315,7 +1343,7 @@
         <v>44126</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="12">
         <v>109</v>
@@ -1331,7 +1359,7 @@
         <v>44127</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="12">
         <v>111</v>
@@ -1347,7 +1375,7 @@
         <v>44128</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="12">
         <v>46</v>
@@ -1363,7 +1391,7 @@
         <v>44129</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="12">
         <v>40</v>
@@ -1379,7 +1407,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="12">
         <v>122</v>
@@ -1395,7 +1423,7 @@
         <v>44131</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="12">
         <v>91</v>
@@ -1411,7 +1439,7 @@
         <v>44132</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="12">
         <v>95</v>
@@ -1427,7 +1455,7 @@
         <v>44133</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="12">
         <v>86</v>
@@ -1443,7 +1471,7 @@
         <v>44134</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="12">
         <v>81</v>
@@ -1459,7 +1487,7 @@
         <v>44135</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="12">
         <v>47</v>
@@ -1475,7 +1503,7 @@
         <v>44136</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="12">
         <v>51</v>
@@ -1491,7 +1519,7 @@
         <v>44137</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="12">
         <v>134</v>
@@ -1507,7 +1535,7 @@
         <v>44138</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="12">
         <v>50</v>
@@ -1523,7 +1551,7 @@
         <v>44139</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="12">
         <v>102</v>
@@ -1539,7 +1567,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="12">
         <v>98</v>
@@ -1550,41 +1578,153 @@
       <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="20"/>
-      <c r="B50" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="13">
-        <f>SUM(D5:D49)</f>
-        <v>43185</v>
-      </c>
-      <c r="E50" s="13">
-        <f>SUM(E5:E49)</f>
-        <v>4560</v>
+      <c r="A50" s="19"/>
+      <c r="B50" s="5">
+        <v>44141</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="12">
+        <v>98</v>
+      </c>
+      <c r="E50" s="12">
+        <v>30</v>
       </c>
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="15"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="5">
+        <v>44142</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="12">
+        <v>50</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="5">
+        <v>44143</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="12">
+        <v>33</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="19"/>
+      <c r="B53" s="5">
+        <v>44144</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="12">
+        <v>182</v>
+      </c>
+      <c r="E53" s="12">
+        <v>2</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="19"/>
+      <c r="B54" s="5">
+        <v>44145</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="12">
+        <v>158</v>
+      </c>
+      <c r="E54" s="12">
+        <v>5</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="19"/>
+      <c r="B55" s="5">
+        <v>44146</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="12">
+        <v>221</v>
+      </c>
+      <c r="E55" s="12">
+        <v>4</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="19"/>
+      <c r="B56" s="5">
+        <v>44147</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="12">
+        <v>208</v>
+      </c>
+      <c r="E56" s="12">
+        <v>54</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="20"/>
+      <c r="B57" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="13">
+        <f>SUM(D5:D56)</f>
+        <v>44135</v>
+      </c>
+      <c r="E57" s="13">
+        <f>SUM(E5:E56)</f>
+        <v>4656</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1601,6 +1741,6 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -204,22 +204,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和２年11月12日（木）まで）</t>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>　　新型コロナウイルス感染症に係る「新潟県新型コロナ受診・相談センター
 （旧帰国者・接触者相談センター）」の対応状況について</t>
     <rPh sb="18" eb="20">
@@ -242,6 +226,22 @@
     </rPh>
     <rPh sb="38" eb="41">
       <t>キコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和２年11月19日（木）まで）</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -430,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +518,12 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +540,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,11 +831,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -838,32 +847,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
@@ -881,10 +890,10 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -895,10 +904,10 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -909,10 +918,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -923,10 +932,10 @@
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -937,10 +946,10 @@
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -951,10 +960,10 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -965,10 +974,10 @@
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -979,10 +988,10 @@
     </row>
     <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -993,10 +1002,10 @@
     </row>
     <row r="13" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
@@ -1371,35 +1380,35 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="19"/>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>44128</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="24">
         <v>46</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="24">
         <v>3</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="19"/>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>44129</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="24">
         <v>40</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="24">
         <v>0</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="19"/>
@@ -1483,35 +1492,35 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="19"/>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>44135</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="24">
         <v>47</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="24">
         <v>1</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="19"/>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>44136</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="24">
         <v>51</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="24">
         <v>2</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="19"/>
@@ -1595,35 +1604,35 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>44142</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="24">
         <v>50</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="24">
         <v>1</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>44143</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="24">
         <v>33</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="24">
         <v>0</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="19"/>
@@ -1666,7 +1675,7 @@
         <v>29</v>
       </c>
       <c r="D55" s="12">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E55" s="12">
         <v>4</v>
@@ -1682,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="D56" s="12">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="E56" s="12">
         <v>54</v>
@@ -1690,41 +1699,153 @@
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="20"/>
-      <c r="B57" s="29" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="5">
+        <v>44148</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="12">
+        <v>219</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="19"/>
+      <c r="B58" s="4">
+        <v>44149</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="24">
+        <v>110</v>
+      </c>
+      <c r="E58" s="24">
+        <v>2</v>
+      </c>
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="19"/>
+      <c r="B59" s="4">
+        <v>44150</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="24">
+        <v>121</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="19"/>
+      <c r="B60" s="5">
+        <v>44151</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="12">
+        <v>297</v>
+      </c>
+      <c r="E60" s="12">
+        <v>126</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="19"/>
+      <c r="B61" s="5">
+        <v>44152</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="12">
+        <v>252</v>
+      </c>
+      <c r="E61" s="12">
+        <v>70</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="19"/>
+      <c r="B62" s="5">
+        <v>44153</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="12">
+        <v>288</v>
+      </c>
+      <c r="E62" s="12">
+        <v>15</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="19"/>
+      <c r="B63" s="5">
+        <v>44154</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="37">
+        <v>304</v>
+      </c>
+      <c r="E63" s="37">
+        <v>62</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="20"/>
+      <c r="B64" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="13">
-        <f>SUM(D5:D56)</f>
-        <v>44135</v>
-      </c>
-      <c r="E57" s="13">
-        <f>SUM(E5:E56)</f>
-        <v>4656</v>
-      </c>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+      <c r="C64" s="32"/>
+      <c r="D64" s="13">
+        <f>SUM(D5:D63)</f>
+        <v>45775</v>
+      </c>
+      <c r="E64" s="13">
+        <f>SUM(E5:E63)</f>
+        <v>4932</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1741,6 +1862,6 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$75</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -230,7 +230,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和２年11月19日（木）まで）</t>
+    <t>　　（県合計・令和２年11月26日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -430,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +524,12 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,9 +546,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,11 +834,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F2"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -847,32 +850,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
@@ -890,10 +893,10 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -904,10 +907,10 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -918,10 +921,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -932,10 +935,10 @@
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -946,10 +949,10 @@
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -960,10 +963,10 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -974,10 +977,10 @@
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -988,10 +991,10 @@
     </row>
     <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -1002,10 +1005,10 @@
     </row>
     <row r="13" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
@@ -1707,7 +1710,7 @@
         <v>24</v>
       </c>
       <c r="D57" s="12">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="E57" s="12">
         <v>1</v>
@@ -1723,7 +1726,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="24">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="E58" s="24">
         <v>2</v>
@@ -1802,50 +1805,162 @@
       <c r="C63" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="37">
-        <v>304</v>
-      </c>
-      <c r="E63" s="37">
+      <c r="D63" s="12">
+        <v>305</v>
+      </c>
+      <c r="E63" s="12">
         <v>62</v>
       </c>
       <c r="F63" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="20"/>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="5">
+        <v>44155</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="12">
+        <v>274</v>
+      </c>
+      <c r="E64" s="12">
+        <v>38</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="19"/>
+      <c r="B65" s="4">
+        <v>44156</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="24">
+        <v>183</v>
+      </c>
+      <c r="E65" s="24">
+        <v>45</v>
+      </c>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="19"/>
+      <c r="B66" s="4">
+        <v>44157</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="24">
+        <v>123</v>
+      </c>
+      <c r="E66" s="24">
+        <v>3</v>
+      </c>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="19"/>
+      <c r="B67" s="4">
+        <v>44158</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="24">
+        <v>155</v>
+      </c>
+      <c r="E67" s="24">
+        <v>1</v>
+      </c>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="19"/>
+      <c r="B68" s="5">
+        <v>44159</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="12">
+        <v>395</v>
+      </c>
+      <c r="E68" s="12">
+        <v>44</v>
+      </c>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="19"/>
+      <c r="B69" s="5">
+        <v>44160</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="12">
+        <v>208</v>
+      </c>
+      <c r="E69" s="12">
+        <v>43</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="19"/>
+      <c r="B70" s="5">
+        <v>44161</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="32">
+        <v>226</v>
+      </c>
+      <c r="E70" s="32">
+        <v>31</v>
+      </c>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="20"/>
+      <c r="B71" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="13">
-        <f>SUM(D5:D63)</f>
-        <v>45775</v>
-      </c>
-      <c r="E64" s="13">
-        <f>SUM(E5:E63)</f>
-        <v>4932</v>
-      </c>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+      <c r="C71" s="34"/>
+      <c r="D71" s="13">
+        <f>SUM(D5:D70)</f>
+        <v>47533</v>
+      </c>
+      <c r="E71" s="13">
+        <f>SUM(E5:E70)</f>
+        <v>5137</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1862,6 +1977,6 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,8 +27,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>新潟県</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>新潟県:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+別添２の内容を記載。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -230,7 +267,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和２年11月26日（木）まで）</t>
+    <t>　　（県合計・令和２年12月3日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -240,7 +277,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -253,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +338,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +367,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -415,6 +473,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -430,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,6 +610,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,6 +657,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -830,18 +935,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <pane ySplit="4" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.125" customWidth="1"/>
@@ -849,33 +954,33 @@
     <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" ht="48" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" ht="24">
+      <c r="A2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
@@ -889,14 +994,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="27" customHeight="1" thickTop="1">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -905,12 +1010,12 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -919,12 +1024,12 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -933,12 +1038,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="27.75" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -947,12 +1052,12 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="27.75" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -961,12 +1066,12 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="27.75" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -975,12 +1080,12 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="27.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -989,12 +1094,12 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="27.75" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -1003,17 +1108,17 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="27.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="5">
         <v>44105</v>
@@ -1029,7 +1134,7 @@
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="19"/>
       <c r="B15" s="5">
         <v>44106</v>
@@ -1045,7 +1150,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="19"/>
       <c r="B16" s="4">
         <v>44107</v>
@@ -1061,7 +1166,7 @@
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17" s="19"/>
       <c r="B17" s="4">
         <v>44108</v>
@@ -1077,7 +1182,7 @@
       </c>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="19"/>
       <c r="B18" s="5">
         <v>44109</v>
@@ -1093,7 +1198,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6">
       <c r="A19" s="19"/>
       <c r="B19" s="5">
         <v>44110</v>
@@ -1109,7 +1214,7 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6">
       <c r="A20" s="19"/>
       <c r="B20" s="5">
         <v>44111</v>
@@ -1125,7 +1230,7 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6">
       <c r="A21" s="19"/>
       <c r="B21" s="5">
         <v>44112</v>
@@ -1141,7 +1246,7 @@
       </c>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6">
       <c r="A22" s="19"/>
       <c r="B22" s="5">
         <v>44113</v>
@@ -1157,7 +1262,7 @@
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6">
       <c r="A23" s="19"/>
       <c r="B23" s="4">
         <v>44114</v>
@@ -1173,7 +1278,7 @@
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6">
       <c r="A24" s="19"/>
       <c r="B24" s="4">
         <v>44115</v>
@@ -1189,7 +1294,7 @@
       </c>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6">
       <c r="A25" s="19"/>
       <c r="B25" s="5">
         <v>44116</v>
@@ -1205,7 +1310,7 @@
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="A26" s="19"/>
       <c r="B26" s="5">
         <v>44117</v>
@@ -1221,7 +1326,7 @@
       </c>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6">
       <c r="A27" s="19"/>
       <c r="B27" s="5">
         <v>44118</v>
@@ -1237,7 +1342,7 @@
       </c>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="A28" s="19"/>
       <c r="B28" s="5">
         <v>44119</v>
@@ -1253,7 +1358,7 @@
       </c>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29" s="19"/>
       <c r="B29" s="5">
         <v>44120</v>
@@ -1269,7 +1374,7 @@
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30" s="19"/>
       <c r="B30" s="4">
         <v>44121</v>
@@ -1285,7 +1390,7 @@
       </c>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="A31" s="19"/>
       <c r="B31" s="4">
         <v>44122</v>
@@ -1301,7 +1406,7 @@
       </c>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="A32" s="19"/>
       <c r="B32" s="5">
         <v>44123</v>
@@ -1317,7 +1422,7 @@
       </c>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6">
       <c r="A33" s="19"/>
       <c r="B33" s="5">
         <v>44124</v>
@@ -1333,7 +1438,7 @@
       </c>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6">
       <c r="A34" s="19"/>
       <c r="B34" s="5">
         <v>44125</v>
@@ -1349,7 +1454,7 @@
       </c>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6">
       <c r="A35" s="19"/>
       <c r="B35" s="5">
         <v>44126</v>
@@ -1365,7 +1470,7 @@
       </c>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6">
       <c r="A36" s="19"/>
       <c r="B36" s="5">
         <v>44127</v>
@@ -1381,7 +1486,7 @@
       </c>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6">
       <c r="A37" s="19"/>
       <c r="B37" s="4">
         <v>44128</v>
@@ -1397,7 +1502,7 @@
       </c>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6">
       <c r="A38" s="19"/>
       <c r="B38" s="4">
         <v>44129</v>
@@ -1413,7 +1518,7 @@
       </c>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6">
       <c r="A39" s="19"/>
       <c r="B39" s="5">
         <v>44130</v>
@@ -1429,7 +1534,7 @@
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6">
       <c r="A40" s="19"/>
       <c r="B40" s="5">
         <v>44131</v>
@@ -1445,7 +1550,7 @@
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6">
       <c r="A41" s="19"/>
       <c r="B41" s="5">
         <v>44132</v>
@@ -1461,7 +1566,7 @@
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6">
       <c r="A42" s="19"/>
       <c r="B42" s="5">
         <v>44133</v>
@@ -1477,7 +1582,7 @@
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6">
       <c r="A43" s="19"/>
       <c r="B43" s="5">
         <v>44134</v>
@@ -1493,7 +1598,7 @@
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6">
       <c r="A44" s="19"/>
       <c r="B44" s="4">
         <v>44135</v>
@@ -1509,7 +1614,7 @@
       </c>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6">
       <c r="A45" s="19"/>
       <c r="B45" s="4">
         <v>44136</v>
@@ -1525,7 +1630,7 @@
       </c>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6">
       <c r="A46" s="19"/>
       <c r="B46" s="5">
         <v>44137</v>
@@ -1541,7 +1646,7 @@
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6">
       <c r="A47" s="19"/>
       <c r="B47" s="5">
         <v>44138</v>
@@ -1557,7 +1662,7 @@
       </c>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6">
       <c r="A48" s="19"/>
       <c r="B48" s="5">
         <v>44139</v>
@@ -1573,7 +1678,7 @@
       </c>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6">
       <c r="A49" s="19"/>
       <c r="B49" s="5">
         <v>44140</v>
@@ -1589,7 +1694,7 @@
       </c>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6">
       <c r="A50" s="19"/>
       <c r="B50" s="5">
         <v>44141</v>
@@ -1605,7 +1710,7 @@
       </c>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6">
       <c r="A51" s="19"/>
       <c r="B51" s="4">
         <v>44142</v>
@@ -1621,7 +1726,7 @@
       </c>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6">
       <c r="A52" s="19"/>
       <c r="B52" s="4">
         <v>44143</v>
@@ -1637,7 +1742,7 @@
       </c>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6">
       <c r="A53" s="19"/>
       <c r="B53" s="5">
         <v>44144</v>
@@ -1653,7 +1758,7 @@
       </c>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6">
       <c r="A54" s="19"/>
       <c r="B54" s="5">
         <v>44145</v>
@@ -1669,7 +1774,7 @@
       </c>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6">
       <c r="A55" s="19"/>
       <c r="B55" s="5">
         <v>44146</v>
@@ -1685,7 +1790,7 @@
       </c>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6">
       <c r="A56" s="19"/>
       <c r="B56" s="5">
         <v>44147</v>
@@ -1701,7 +1806,7 @@
       </c>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6">
       <c r="A57" s="19"/>
       <c r="B57" s="5">
         <v>44148</v>
@@ -1717,7 +1822,7 @@
       </c>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6">
       <c r="A58" s="19"/>
       <c r="B58" s="4">
         <v>44149</v>
@@ -1733,7 +1838,7 @@
       </c>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6">
       <c r="A59" s="19"/>
       <c r="B59" s="4">
         <v>44150</v>
@@ -1749,7 +1854,7 @@
       </c>
       <c r="F59" s="14"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6">
       <c r="A60" s="19"/>
       <c r="B60" s="5">
         <v>44151</v>
@@ -1765,7 +1870,7 @@
       </c>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6">
       <c r="A61" s="19"/>
       <c r="B61" s="5">
         <v>44152</v>
@@ -1781,7 +1886,7 @@
       </c>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6">
       <c r="A62" s="19"/>
       <c r="B62" s="5">
         <v>44153</v>
@@ -1797,7 +1902,7 @@
       </c>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6">
       <c r="A63" s="19"/>
       <c r="B63" s="5">
         <v>44154</v>
@@ -1813,7 +1918,7 @@
       </c>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6">
       <c r="A64" s="19"/>
       <c r="B64" s="5">
         <v>44155</v>
@@ -1829,7 +1934,7 @@
       </c>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6">
       <c r="A65" s="19"/>
       <c r="B65" s="4">
         <v>44156</v>
@@ -1845,7 +1950,7 @@
       </c>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6">
       <c r="A66" s="19"/>
       <c r="B66" s="4">
         <v>44157</v>
@@ -1861,7 +1966,7 @@
       </c>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6">
       <c r="A67" s="19"/>
       <c r="B67" s="4">
         <v>44158</v>
@@ -1877,7 +1982,7 @@
       </c>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6">
       <c r="A68" s="19"/>
       <c r="B68" s="5">
         <v>44159</v>
@@ -1893,7 +1998,7 @@
       </c>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6">
       <c r="A69" s="19"/>
       <c r="B69" s="5">
         <v>44160</v>
@@ -1909,12 +2014,12 @@
       </c>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6">
       <c r="A70" s="19"/>
-      <c r="B70" s="5">
+      <c r="B70" s="33">
         <v>44161</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="32">
@@ -1925,42 +2030,154 @@
       </c>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="20"/>
-      <c r="B71" s="33" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="19"/>
+      <c r="B71" s="5">
+        <v>44162</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="12">
+        <v>193</v>
+      </c>
+      <c r="E71" s="12">
+        <v>60</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="19"/>
+      <c r="B72" s="35">
+        <v>44163</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="36">
+        <v>97</v>
+      </c>
+      <c r="E72" s="36">
+        <v>1</v>
+      </c>
+      <c r="F72" s="37"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="19"/>
+      <c r="B73" s="35">
+        <v>44164</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="36">
+        <v>121</v>
+      </c>
+      <c r="E73" s="36">
+        <v>0</v>
+      </c>
+      <c r="F73" s="37"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="19"/>
+      <c r="B74" s="5">
+        <v>44165</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="12">
+        <v>299</v>
+      </c>
+      <c r="E74" s="12">
+        <v>36</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="19"/>
+      <c r="B75" s="5">
+        <v>44166</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="12">
+        <v>206</v>
+      </c>
+      <c r="E75" s="12">
+        <v>47</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="19"/>
+      <c r="B76" s="5">
+        <v>44167</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="12">
+        <v>191</v>
+      </c>
+      <c r="E76" s="12">
+        <v>42</v>
+      </c>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="19"/>
+      <c r="B77" s="33">
+        <v>44168</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="12">
+        <v>230</v>
+      </c>
+      <c r="E77" s="12">
+        <v>20</v>
+      </c>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="20"/>
+      <c r="B78" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="13">
-        <f>SUM(D5:D70)</f>
-        <v>47533</v>
-      </c>
-      <c r="E71" s="13">
-        <f>SUM(E5:E70)</f>
-        <v>5137</v>
-      </c>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+      <c r="C78" s="40"/>
+      <c r="D78" s="13">
+        <f>SUM(D5:D77)</f>
+        <v>48870</v>
+      </c>
+      <c r="E78" s="13">
+        <f>SUM(E5:E77)</f>
+        <v>5343</v>
+      </c>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1977,6 +2194,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -185,34 +185,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>木</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>土</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>金</t>
   </si>
   <si>
@@ -267,7 +239,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和２年12月3日（木）まで）</t>
+    <t>　　（県合計・令和２年12月10日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -277,7 +249,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="18" eb="19">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -576,21 +548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,31 +569,37 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,11 +911,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -956,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -967,7 +939,7 @@
     </row>
     <row r="2" spans="1:7" ht="24">
       <c r="A2" s="43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -1111,1073 +1083,693 @@
     <row r="13" spans="1:7" ht="27.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="41" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C13" s="40"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8">
+        <v>2862</v>
+      </c>
+      <c r="E13" s="8">
+        <v>165</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
-      <c r="B14" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
+      <c r="B14" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="21">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E14" s="21">
         <v>2</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19"/>
       <c r="B15" s="5">
-        <v>44106</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="21">
-        <v>106</v>
-      </c>
-      <c r="E15" s="21">
-        <v>5</v>
+        <v>44137</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12">
+        <v>134</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19"/>
-      <c r="B16" s="4">
-        <v>44107</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="22">
-        <v>53</v>
-      </c>
-      <c r="E16" s="22">
-        <v>2</v>
-      </c>
-      <c r="F16" s="14"/>
+      <c r="B16" s="5">
+        <v>44138</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="12">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19"/>
-      <c r="B17" s="4">
-        <v>44108</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="22">
-        <v>43</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="B17" s="5">
+        <v>44139</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="12">
+        <v>102</v>
+      </c>
+      <c r="E17" s="12">
         <v>0</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19"/>
       <c r="B18" s="5">
-        <v>44109</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="21">
-        <v>140</v>
-      </c>
-      <c r="E18" s="21">
-        <v>7</v>
+        <v>44140</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12">
+        <v>98</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19"/>
       <c r="B19" s="5">
-        <v>44110</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="21">
-        <v>113</v>
-      </c>
-      <c r="E19" s="21">
-        <v>6</v>
+        <v>44141</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12">
+        <v>98</v>
+      </c>
+      <c r="E19" s="12">
+        <v>30</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19"/>
-      <c r="B20" s="5">
-        <v>44111</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
+      <c r="B20" s="4">
+        <v>44142</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="21">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E20" s="21">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="19"/>
-      <c r="B21" s="5">
-        <v>44112</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="12">
-        <v>135</v>
-      </c>
-      <c r="E21" s="12">
-        <v>12</v>
-      </c>
-      <c r="F21" s="13"/>
+      <c r="B21" s="4">
+        <v>44143</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="21">
+        <v>33</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="19"/>
       <c r="B22" s="5">
-        <v>44113</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>44144</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="12">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="E22" s="12">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="19"/>
-      <c r="B23" s="4">
-        <v>44114</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="24">
-        <v>70</v>
-      </c>
-      <c r="E23" s="24">
-        <v>24</v>
-      </c>
-      <c r="F23" s="14"/>
+      <c r="B23" s="5">
+        <v>44145</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="12">
+        <v>158</v>
+      </c>
+      <c r="E23" s="12">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="19"/>
-      <c r="B24" s="4">
-        <v>44115</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="24">
-        <v>66</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14"/>
+      <c r="B24" s="5">
+        <v>44146</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="12">
+        <v>244</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="19"/>
       <c r="B25" s="5">
-        <v>44116</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>44147</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="12">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="E25" s="12">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="19"/>
       <c r="B26" s="5">
-        <v>44117</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>44148</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="12">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="E26" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="19"/>
-      <c r="B27" s="5">
-        <v>44118</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="12">
-        <v>83</v>
-      </c>
-      <c r="E27" s="12">
-        <v>7</v>
-      </c>
-      <c r="F27" s="13"/>
+      <c r="B27" s="4">
+        <v>44149</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="21">
+        <v>181</v>
+      </c>
+      <c r="E27" s="21">
+        <v>2</v>
+      </c>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="19"/>
-      <c r="B28" s="5">
-        <v>44119</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12">
-        <v>95</v>
-      </c>
-      <c r="E28" s="12">
-        <v>10</v>
-      </c>
-      <c r="F28" s="13"/>
+      <c r="B28" s="4">
+        <v>44150</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="21">
+        <v>121</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="19"/>
       <c r="B29" s="5">
-        <v>44120</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>18</v>
+        <v>44151</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="12">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="E29" s="12">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="19"/>
-      <c r="B30" s="4">
-        <v>44121</v>
+      <c r="B30" s="5">
+        <v>44152</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="24">
-        <v>64</v>
-      </c>
-      <c r="E30" s="24">
-        <v>3</v>
-      </c>
-      <c r="F30" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="D30" s="12">
+        <v>252</v>
+      </c>
+      <c r="E30" s="12">
+        <v>70</v>
+      </c>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="19"/>
-      <c r="B31" s="4">
-        <v>44122</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="24">
-        <v>47</v>
-      </c>
-      <c r="E31" s="24">
-        <v>1</v>
-      </c>
-      <c r="F31" s="14"/>
+      <c r="B31" s="5">
+        <v>44153</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12">
+        <v>288</v>
+      </c>
+      <c r="E31" s="12">
+        <v>15</v>
+      </c>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="19"/>
       <c r="B32" s="5">
-        <v>44123</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>21</v>
+        <v>44154</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="12">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="E32" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="19"/>
       <c r="B33" s="5">
-        <v>44124</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>22</v>
+        <v>44155</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="12">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="E33" s="12">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="19"/>
-      <c r="B34" s="5">
-        <v>44125</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="12">
-        <v>116</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13"/>
+      <c r="B34" s="4">
+        <v>44156</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="21">
+        <v>183</v>
+      </c>
+      <c r="E34" s="21">
+        <v>45</v>
+      </c>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="19"/>
-      <c r="B35" s="5">
-        <v>44126</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="12">
-        <v>109</v>
-      </c>
-      <c r="E35" s="12">
-        <v>4</v>
-      </c>
-      <c r="F35" s="13"/>
+      <c r="B35" s="4">
+        <v>44157</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="21">
+        <v>123</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3</v>
+      </c>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="19"/>
-      <c r="B36" s="5">
-        <v>44127</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="12">
-        <v>111</v>
-      </c>
-      <c r="E36" s="12">
-        <v>2</v>
-      </c>
-      <c r="F36" s="13"/>
+      <c r="B36" s="4">
+        <v>44158</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="21">
+        <v>155</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="19"/>
-      <c r="B37" s="4">
-        <v>44128</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="24">
-        <v>46</v>
-      </c>
-      <c r="E37" s="24">
-        <v>3</v>
-      </c>
-      <c r="F37" s="14"/>
+      <c r="B37" s="5">
+        <v>44159</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="12">
+        <v>395</v>
+      </c>
+      <c r="E37" s="12">
+        <v>44</v>
+      </c>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="19"/>
-      <c r="B38" s="4">
-        <v>44129</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="24">
-        <v>40</v>
-      </c>
-      <c r="E38" s="24">
-        <v>0</v>
-      </c>
-      <c r="F38" s="14"/>
+      <c r="B38" s="5">
+        <v>44160</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="12">
+        <v>208</v>
+      </c>
+      <c r="E38" s="12">
+        <v>43</v>
+      </c>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="19"/>
-      <c r="B39" s="5">
-        <v>44130</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="12">
-        <v>122</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0</v>
+      <c r="B39" s="29">
+        <v>44161</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="28">
+        <v>226</v>
+      </c>
+      <c r="E39" s="28">
+        <v>31</v>
       </c>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="19"/>
       <c r="B40" s="5">
-        <v>44131</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>28</v>
+        <v>44162</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D40" s="12">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="E40" s="12">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="19"/>
-      <c r="B41" s="5">
-        <v>44132</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="12">
-        <v>95</v>
-      </c>
-      <c r="E41" s="12">
-        <v>2</v>
-      </c>
-      <c r="F41" s="13"/>
+      <c r="B41" s="31">
+        <v>44163</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="32">
+        <v>97</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1</v>
+      </c>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="19"/>
-      <c r="B42" s="5">
-        <v>44133</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="12">
-        <v>86</v>
-      </c>
-      <c r="E42" s="12">
-        <v>6</v>
-      </c>
-      <c r="F42" s="13"/>
+      <c r="B42" s="31">
+        <v>44164</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="32">
+        <v>121</v>
+      </c>
+      <c r="E42" s="32">
+        <v>0</v>
+      </c>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="19"/>
       <c r="B43" s="5">
-        <v>44134</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>24</v>
+        <v>44165</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D43" s="12">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="E43" s="12">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="19"/>
-      <c r="B44" s="4">
-        <v>44135</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="24">
+      <c r="B44" s="5">
+        <v>44166</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="12">
+        <v>206</v>
+      </c>
+      <c r="E44" s="12">
         <v>47</v>
       </c>
-      <c r="E44" s="24">
-        <v>1</v>
-      </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="19"/>
-      <c r="B45" s="4">
-        <v>44136</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="24">
-        <v>51</v>
-      </c>
-      <c r="E45" s="24">
-        <v>2</v>
-      </c>
-      <c r="F45" s="14"/>
+      <c r="B45" s="5">
+        <v>44167</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="12">
+        <v>191</v>
+      </c>
+      <c r="E45" s="12">
+        <v>42</v>
+      </c>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="19"/>
-      <c r="B46" s="5">
-        <v>44137</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>27</v>
+      <c r="B46" s="29">
+        <v>44168</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D46" s="12">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="E46" s="12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="19"/>
       <c r="B47" s="5">
-        <v>44138</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>28</v>
+        <v>44169</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="D47" s="12">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="E47" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="19"/>
-      <c r="B48" s="5">
-        <v>44139</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="12">
-        <v>102</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="13"/>
+      <c r="B48" s="36">
+        <v>44170</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="32">
+        <v>120</v>
+      </c>
+      <c r="E48" s="32">
+        <v>2</v>
+      </c>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="19"/>
-      <c r="B49" s="5">
-        <v>44140</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="12">
-        <v>98</v>
-      </c>
-      <c r="E49" s="12">
+      <c r="B49" s="31">
+        <v>44171</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="32">
+        <v>111</v>
+      </c>
+      <c r="E49" s="32">
         <v>0</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="19"/>
-      <c r="B50" s="5">
-        <v>44141</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>24</v>
+      <c r="B50" s="29">
+        <v>44172</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D50" s="12">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="E50" s="12">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="19"/>
-      <c r="B51" s="4">
-        <v>44142</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="24">
-        <v>50</v>
-      </c>
-      <c r="E51" s="24">
-        <v>1</v>
-      </c>
-      <c r="F51" s="14"/>
+      <c r="B51" s="5">
+        <v>44173</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="12">
+        <v>212</v>
+      </c>
+      <c r="E51" s="12">
+        <v>62</v>
+      </c>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="19"/>
-      <c r="B52" s="4">
-        <v>44143</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="24">
-        <v>33</v>
-      </c>
-      <c r="E52" s="24">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14"/>
+      <c r="B52" s="29">
+        <v>44174</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="12">
+        <v>200</v>
+      </c>
+      <c r="E52" s="12">
+        <v>28</v>
+      </c>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="19"/>
       <c r="B53" s="5">
-        <v>44144</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>27</v>
+        <v>44175</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D53" s="12">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="E53" s="12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19"/>
-      <c r="B54" s="5">
-        <v>44145</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="12">
-        <v>158</v>
-      </c>
-      <c r="E54" s="12">
-        <v>5</v>
+      <c r="A54" s="20"/>
+      <c r="B54" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="13">
+        <f>SUM(D5:D53)</f>
+        <v>50192</v>
+      </c>
+      <c r="E54" s="13">
+        <f>SUM(E5:E53)</f>
+        <v>5514</v>
       </c>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19"/>
-      <c r="B55" s="5">
-        <v>44146</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="12">
-        <v>244</v>
-      </c>
-      <c r="E55" s="12">
-        <v>4</v>
-      </c>
-      <c r="F55" s="13"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="19"/>
-      <c r="B56" s="5">
-        <v>44147</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="12">
-        <v>234</v>
-      </c>
-      <c r="E56" s="12">
-        <v>54</v>
-      </c>
-      <c r="F56" s="13"/>
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="19"/>
-      <c r="B57" s="5">
-        <v>44148</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="12">
-        <v>341</v>
-      </c>
-      <c r="E57" s="12">
-        <v>1</v>
-      </c>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="19"/>
-      <c r="B58" s="4">
-        <v>44149</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="24">
-        <v>181</v>
-      </c>
-      <c r="E58" s="24">
-        <v>2</v>
-      </c>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="19"/>
-      <c r="B59" s="4">
-        <v>44150</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="24">
-        <v>121</v>
-      </c>
-      <c r="E59" s="24">
-        <v>0</v>
-      </c>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="19"/>
-      <c r="B60" s="5">
-        <v>44151</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="12">
-        <v>297</v>
-      </c>
-      <c r="E60" s="12">
-        <v>126</v>
-      </c>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="19"/>
-      <c r="B61" s="5">
-        <v>44152</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="12">
-        <v>252</v>
-      </c>
-      <c r="E61" s="12">
-        <v>70</v>
-      </c>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="19"/>
-      <c r="B62" s="5">
-        <v>44153</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="12">
-        <v>288</v>
-      </c>
-      <c r="E62" s="12">
-        <v>15</v>
-      </c>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="19"/>
-      <c r="B63" s="5">
-        <v>44154</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="12">
-        <v>305</v>
-      </c>
-      <c r="E63" s="12">
-        <v>62</v>
-      </c>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="19"/>
-      <c r="B64" s="5">
-        <v>44155</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="12">
-        <v>274</v>
-      </c>
-      <c r="E64" s="12">
-        <v>38</v>
-      </c>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="19"/>
-      <c r="B65" s="4">
-        <v>44156</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="24">
-        <v>183</v>
-      </c>
-      <c r="E65" s="24">
-        <v>45</v>
-      </c>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="19"/>
-      <c r="B66" s="4">
-        <v>44157</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="24">
-        <v>123</v>
-      </c>
-      <c r="E66" s="24">
-        <v>3</v>
-      </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="19"/>
-      <c r="B67" s="4">
-        <v>44158</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="24">
-        <v>155</v>
-      </c>
-      <c r="E67" s="24">
-        <v>1</v>
-      </c>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="19"/>
-      <c r="B68" s="5">
-        <v>44159</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="12">
-        <v>395</v>
-      </c>
-      <c r="E68" s="12">
-        <v>44</v>
-      </c>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="19"/>
-      <c r="B69" s="5">
-        <v>44160</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="12">
-        <v>208</v>
-      </c>
-      <c r="E69" s="12">
-        <v>43</v>
-      </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="19"/>
-      <c r="B70" s="33">
-        <v>44161</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="32">
-        <v>226</v>
-      </c>
-      <c r="E70" s="32">
-        <v>31</v>
-      </c>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="19"/>
-      <c r="B71" s="5">
-        <v>44162</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="12">
-        <v>193</v>
-      </c>
-      <c r="E71" s="12">
-        <v>60</v>
-      </c>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="19"/>
-      <c r="B72" s="35">
-        <v>44163</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="36">
-        <v>97</v>
-      </c>
-      <c r="E72" s="36">
-        <v>1</v>
-      </c>
-      <c r="F72" s="37"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="19"/>
-      <c r="B73" s="35">
-        <v>44164</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="36">
-        <v>121</v>
-      </c>
-      <c r="E73" s="36">
-        <v>0</v>
-      </c>
-      <c r="F73" s="37"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="19"/>
-      <c r="B74" s="5">
-        <v>44165</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="12">
-        <v>299</v>
-      </c>
-      <c r="E74" s="12">
-        <v>36</v>
-      </c>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="19"/>
-      <c r="B75" s="5">
-        <v>44166</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="12">
-        <v>206</v>
-      </c>
-      <c r="E75" s="12">
-        <v>47</v>
-      </c>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="19"/>
-      <c r="B76" s="5">
-        <v>44167</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="12">
-        <v>191</v>
-      </c>
-      <c r="E76" s="12">
-        <v>42</v>
-      </c>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="19"/>
-      <c r="B77" s="33">
-        <v>44168</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="12">
-        <v>230</v>
-      </c>
-      <c r="E77" s="12">
-        <v>20</v>
-      </c>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="20"/>
-      <c r="B78" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="13">
-        <f>SUM(D5:D77)</f>
-        <v>48870</v>
-      </c>
-      <c r="E78" s="13">
-        <f>SUM(E5:E77)</f>
-        <v>5343</v>
-      </c>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="15"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="A57" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -2194,7 +1786,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -239,7 +239,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和２年12月10日（木）まで）</t>
+    <t>　　（県合計・令和２年12月17日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -484,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +600,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,11 +914,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -927,32 +930,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
@@ -970,10 +973,10 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -984,10 +987,10 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -998,10 +1001,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -1012,10 +1015,10 @@
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -1026,10 +1029,10 @@
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -1040,10 +1043,10 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -1054,10 +1057,10 @@
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -1068,10 +1071,10 @@
     </row>
     <row r="12" spans="1:7" ht="27.75" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -1082,10 +1085,10 @@
     </row>
     <row r="13" spans="1:7" ht="27.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="8">
         <v>2862</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="12">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E53" s="12">
         <v>14</v>
@@ -1735,41 +1738,153 @@
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="20"/>
-      <c r="B54" s="39" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="5">
+        <v>44176</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="12">
+        <v>232</v>
+      </c>
+      <c r="E54" s="12">
+        <v>114</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="19"/>
+      <c r="B55" s="36">
+        <v>44177</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="32">
+        <v>118</v>
+      </c>
+      <c r="E55" s="32">
+        <v>18</v>
+      </c>
+      <c r="F55" s="33"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="19"/>
+      <c r="B56" s="31">
+        <v>44178</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="32">
+        <v>120</v>
+      </c>
+      <c r="E56" s="32">
+        <v>123</v>
+      </c>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="19"/>
+      <c r="B57" s="5">
+        <v>44179</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="12">
+        <v>288</v>
+      </c>
+      <c r="E57" s="12">
+        <v>127</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="19"/>
+      <c r="B58" s="29">
+        <v>44180</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="12">
+        <v>215</v>
+      </c>
+      <c r="E58" s="12">
+        <v>83</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="19"/>
+      <c r="B59" s="5">
+        <v>44181</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="12">
+        <v>233</v>
+      </c>
+      <c r="E59" s="12">
+        <v>79</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="19"/>
+      <c r="B60" s="5">
+        <v>44182</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="12">
+        <v>185</v>
+      </c>
+      <c r="E60" s="12">
+        <v>80</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="20"/>
+      <c r="B61" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="13">
-        <f>SUM(D5:D53)</f>
-        <v>50192</v>
-      </c>
-      <c r="E54" s="13">
-        <f>SUM(E5:E53)</f>
-        <v>5514</v>
-      </c>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="C61" s="41"/>
+      <c r="D61" s="13">
+        <f>SUM(D5:D60)</f>
+        <v>51603</v>
+      </c>
+      <c r="E61" s="13">
+        <f>SUM(E5:E60)</f>
+        <v>6138</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1786,7 +1901,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$72</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -239,7 +239,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和２年12月17日（木）まで）</t>
+    <t>　　（県合計・令和２年12月24日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -484,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +600,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,11 +917,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="4" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -930,32 +933,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
@@ -973,10 +976,10 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -987,10 +990,10 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -1001,10 +1004,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -1015,10 +1018,10 @@
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -1029,10 +1032,10 @@
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -1043,10 +1046,10 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -1057,10 +1060,10 @@
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -1071,10 +1074,10 @@
     </row>
     <row r="12" spans="1:7" ht="27.75" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -1085,10 +1088,10 @@
     </row>
     <row r="13" spans="1:7" ht="27.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="8">
         <v>2862</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="12">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E57" s="12">
         <v>127</v>
@@ -1850,41 +1853,153 @@
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="20"/>
-      <c r="B61" s="40" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="5">
+        <v>44183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="12">
+        <v>221</v>
+      </c>
+      <c r="E61" s="12">
+        <v>82</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="19"/>
+      <c r="B62" s="36">
+        <v>44184</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="32">
+        <v>110</v>
+      </c>
+      <c r="E62" s="32">
         <v>12</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="13">
-        <f>SUM(D5:D60)</f>
-        <v>51603</v>
-      </c>
-      <c r="E61" s="13">
-        <f>SUM(E5:E60)</f>
-        <v>6138</v>
-      </c>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="15"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="31">
+        <v>44185</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="32">
+        <v>100</v>
+      </c>
+      <c r="E63" s="32">
+        <v>2</v>
+      </c>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="19"/>
+      <c r="B64" s="5">
+        <v>44186</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="12">
+        <v>253</v>
+      </c>
+      <c r="E64" s="12">
+        <v>23</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="19"/>
+      <c r="B65" s="5">
+        <v>44187</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="12">
+        <v>218</v>
+      </c>
+      <c r="E65" s="12">
+        <v>12</v>
+      </c>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="19"/>
+      <c r="B66" s="5">
+        <v>44188</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="12">
+        <v>258</v>
+      </c>
+      <c r="E66" s="12">
+        <v>29</v>
+      </c>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="19"/>
+      <c r="B67" s="5">
+        <v>44189</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="12">
+        <v>289</v>
+      </c>
+      <c r="E67" s="12">
+        <v>21</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="20"/>
+      <c r="B68" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="42"/>
+      <c r="D68" s="13">
+        <f>SUM(D5:D67)</f>
+        <v>53054</v>
+      </c>
+      <c r="E68" s="13">
+        <f>SUM(E5:E63)</f>
+        <v>6234</v>
+      </c>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1901,7 +2016,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$79</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -239,7 +239,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和２年12月24日（木）まで）</t>
+    <t>　　（県合計・令和２年12月31日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -484,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +600,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,11 +920,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <pane ySplit="4" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -933,32 +936,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
@@ -976,10 +979,10 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="6">
         <v>696</v>
       </c>
@@ -990,10 +993,10 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="8">
         <v>3256</v>
       </c>
@@ -1004,10 +1007,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="8">
         <v>9961</v>
       </c>
@@ -1018,10 +1021,10 @@
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="8">
         <v>6961</v>
       </c>
@@ -1032,10 +1035,10 @@
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="8">
         <v>3019</v>
       </c>
@@ -1046,10 +1049,10 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="8">
         <v>5404</v>
       </c>
@@ -1060,10 +1063,10 @@
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="8">
         <v>6809</v>
       </c>
@@ -1074,10 +1077,10 @@
     </row>
     <row r="12" spans="1:7" ht="27.75" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="8">
         <v>3782</v>
       </c>
@@ -1088,10 +1091,10 @@
     </row>
     <row r="13" spans="1:7" ht="27.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="8">
         <v>2862</v>
       </c>
@@ -1965,41 +1968,153 @@
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="20"/>
-      <c r="B68" s="41" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="5">
+        <v>44190</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="12">
+        <v>243</v>
+      </c>
+      <c r="E68" s="12">
+        <v>67</v>
+      </c>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="19"/>
+      <c r="B69" s="31">
+        <v>44191</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="32">
+        <v>155</v>
+      </c>
+      <c r="E69" s="32">
+        <v>4</v>
+      </c>
+      <c r="F69" s="33"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="19"/>
+      <c r="B70" s="31">
+        <v>44192</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="32">
+        <v>137</v>
+      </c>
+      <c r="E70" s="32">
+        <v>1</v>
+      </c>
+      <c r="F70" s="33"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="19"/>
+      <c r="B71" s="5">
+        <v>44193</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="12">
+        <v>253</v>
+      </c>
+      <c r="E71" s="12">
+        <v>9</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="19"/>
+      <c r="B72" s="5">
+        <v>44194</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="12">
+        <v>221</v>
+      </c>
+      <c r="E72" s="12">
         <v>12</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="13">
-        <f>SUM(D5:D67)</f>
-        <v>53054</v>
-      </c>
-      <c r="E68" s="13">
-        <f>SUM(E5:E63)</f>
-        <v>6234</v>
-      </c>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="19"/>
+      <c r="B73" s="5">
+        <v>44195</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="12">
+        <v>211</v>
+      </c>
+      <c r="E73" s="12">
+        <v>2</v>
+      </c>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="19"/>
+      <c r="B74" s="5">
+        <v>44196</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="12">
+        <v>173</v>
+      </c>
+      <c r="E74" s="12">
+        <v>4</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="20"/>
+      <c r="B75" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="43"/>
+      <c r="D75" s="13">
+        <f>SUM(D5:D74)</f>
+        <v>54447</v>
+      </c>
+      <c r="E75" s="13">
+        <f>SUM(E5:E74)</f>
+        <v>6418</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -2016,7 +2131,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$F$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -85,14 +85,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>帰国者・接触者外来を
-紹介した人数（人）（注）</t>
-    <rPh sb="21" eb="22">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -130,13 +122,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>注：１件の電話で２人以上を帰国者・接触者外来へ紹介した場合は、紹介した人数</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -239,7 +224,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年1月7日（木）まで）</t>
+    <t>11月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年1月14日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -249,13 +241,13 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>11月</t>
+    <t>12月</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
     </rPh>
@@ -333,21 +325,15 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -446,30 +432,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -485,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,45 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,850 +814,392 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" customHeight="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" ht="48" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="24">
+      <c r="A2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27" customHeight="1" thickTop="1">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" thickTop="1">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="5">
         <v>696</v>
       </c>
-      <c r="E5" s="5">
-        <v>61</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="7">
         <v>3256</v>
       </c>
-      <c r="E6" s="5">
-        <v>368</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="33"/>
+      <c r="B7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="7">
         <v>9961</v>
       </c>
-      <c r="E7" s="7">
-        <v>1388</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="27.75" customHeight="1">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="27.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="33"/>
+      <c r="B8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="7">
         <v>6961</v>
       </c>
-      <c r="E8" s="7">
-        <v>873</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="27.75" customHeight="1">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="33"/>
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="7">
         <v>3019</v>
       </c>
-      <c r="E9" s="7">
-        <v>176</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="27.75" customHeight="1">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="33"/>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="7">
         <v>5404</v>
       </c>
-      <c r="E10" s="7">
-        <v>388</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="27.75" customHeight="1">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="33"/>
+      <c r="B11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="7">
         <v>6809</v>
       </c>
-      <c r="E11" s="7">
-        <v>716</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="27.75" customHeight="1">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="33"/>
+      <c r="B12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="7">
         <v>3782</v>
       </c>
-      <c r="E12" s="7">
-        <v>419</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="27.75" customHeight="1">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="33"/>
+      <c r="B13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="7">
         <v>2862</v>
       </c>
-      <c r="E13" s="7">
-        <v>165</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="33"/>
+      <c r="B14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="12">
         <v>5493</v>
       </c>
-      <c r="E14" s="12">
-        <v>680</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="4">
-        <v>44166</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="11">
-        <v>206</v>
-      </c>
-      <c r="E15" s="11">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:7">
+        <v>6204</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="17"/>
       <c r="B16" s="4">
-        <v>44167</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>22</v>
+        <v>44197</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="11">
-        <v>191</v>
-      </c>
-      <c r="E16" s="11">
-        <v>42</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>158</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="17"/>
-      <c r="B17" s="19">
-        <v>44168</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>23</v>
+      <c r="B17" s="4">
+        <v>44198</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="11">
-        <v>230</v>
-      </c>
-      <c r="E17" s="11">
-        <v>20</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="17"/>
       <c r="B18" s="4">
-        <v>44169</v>
-      </c>
-      <c r="C18" s="25" t="s">
+        <v>44199</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="11">
-        <v>187</v>
-      </c>
-      <c r="E18" s="11">
-        <v>21</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="17"/>
-      <c r="B19" s="26">
-        <v>44170</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="4">
+        <v>44200</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="22">
-        <v>120</v>
-      </c>
-      <c r="E19" s="22">
-        <v>2</v>
-      </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="11">
+        <v>327</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="17"/>
-      <c r="B20" s="21">
-        <v>44171</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="4">
+        <v>44201</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="22">
-        <v>111</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="11">
+        <v>301</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="17"/>
-      <c r="B21" s="19">
-        <v>44172</v>
+      <c r="B21" s="4">
+        <v>44202</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="11">
-        <v>270</v>
-      </c>
-      <c r="E21" s="11">
-        <v>44</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6">
+        <v>298</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="17"/>
       <c r="B22" s="4">
-        <v>44173</v>
+        <v>44203</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="11">
-        <v>212</v>
-      </c>
-      <c r="E22" s="11">
-        <v>62</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6">
+        <v>280</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="17"/>
-      <c r="B23" s="19">
-        <v>44174</v>
+      <c r="B23" s="4">
+        <v>44204</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D23" s="11">
-        <v>200</v>
-      </c>
-      <c r="E23" s="11">
-        <v>28</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6">
+        <v>252</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="17"/>
       <c r="B24" s="4">
-        <v>44175</v>
+        <v>44205</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D24" s="11">
-        <v>242</v>
-      </c>
-      <c r="E24" s="11">
-        <v>14</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6">
+        <v>160</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="17"/>
       <c r="B25" s="4">
-        <v>44176</v>
+        <v>44206</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="11">
-        <v>232</v>
-      </c>
-      <c r="E25" s="11">
-        <v>114</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="17"/>
-      <c r="B26" s="26">
-        <v>44177</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="4">
+        <v>44207</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="22">
-        <v>118</v>
-      </c>
-      <c r="E26" s="22">
-        <v>18</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="11">
+        <v>148</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="17"/>
-      <c r="B27" s="21">
-        <v>44178</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="4">
+        <v>44208</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="22">
-        <v>120</v>
-      </c>
-      <c r="E27" s="22">
-        <v>123</v>
-      </c>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="D27" s="11">
+        <v>294</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="17"/>
       <c r="B28" s="4">
-        <v>44179</v>
-      </c>
-      <c r="C28" s="29" t="s">
+        <v>44209</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="11">
-        <v>290</v>
-      </c>
-      <c r="E28" s="11">
-        <v>127</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>263</v>
+      </c>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="17"/>
-      <c r="B29" s="19">
-        <v>44180</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="4">
+        <v>44210</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="11">
-        <v>215</v>
-      </c>
-      <c r="E29" s="11">
-        <v>83</v>
-      </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="4">
-        <v>44181</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="11">
-        <v>233</v>
-      </c>
-      <c r="E30" s="11">
-        <v>79</v>
-      </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="4">
-        <v>44182</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="11">
-        <v>185</v>
-      </c>
-      <c r="E31" s="11">
-        <v>80</v>
-      </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="4">
-        <v>44183</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="11">
-        <v>221</v>
-      </c>
-      <c r="E32" s="11">
-        <v>82</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="26">
-        <v>44184</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="22">
-        <v>110</v>
-      </c>
-      <c r="E33" s="22">
-        <v>12</v>
-      </c>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21">
-        <v>44185</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="22">
-        <v>100</v>
-      </c>
-      <c r="E34" s="22">
-        <v>2</v>
-      </c>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="4">
-        <v>44186</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11">
-        <v>253</v>
-      </c>
-      <c r="E35" s="11">
-        <v>23</v>
-      </c>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="4">
-        <v>44187</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="11">
-        <v>218</v>
-      </c>
-      <c r="E36" s="11">
-        <v>12</v>
-      </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="4">
-        <v>44188</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="11">
-        <v>258</v>
-      </c>
-      <c r="E37" s="11">
-        <v>29</v>
-      </c>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="4">
-        <v>44189</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="11">
-        <v>289</v>
-      </c>
-      <c r="E38" s="11">
-        <v>21</v>
-      </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="4">
-        <v>44190</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="11">
-        <v>243</v>
-      </c>
-      <c r="E39" s="11">
-        <v>67</v>
-      </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="21">
-        <v>44191</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="22">
-        <v>155</v>
-      </c>
-      <c r="E40" s="22">
-        <v>4</v>
-      </c>
-      <c r="F40" s="23"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="21">
-        <v>44192</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="22">
-        <v>137</v>
-      </c>
-      <c r="E41" s="22">
-        <v>1</v>
-      </c>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="17"/>
-      <c r="B42" s="4">
-        <v>44193</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="11">
-        <v>253</v>
-      </c>
-      <c r="E42" s="11">
+        <v>236</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="12">
+        <f>SUM(D5:D29)</f>
+        <v>57640</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4">
-        <v>44194</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="11">
-        <v>221</v>
-      </c>
-      <c r="E43" s="11">
-        <v>12</v>
-      </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
-        <v>44195</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="11">
-        <v>211</v>
-      </c>
-      <c r="E44" s="11">
-        <v>2</v>
-      </c>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="4">
-        <v>44196</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="11">
-        <v>173</v>
-      </c>
-      <c r="E45" s="11">
-        <v>4</v>
-      </c>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="11">
-        <v>158</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4">
-        <v>44198</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="11">
-        <v>170</v>
-      </c>
-      <c r="E47" s="11">
-        <v>36</v>
-      </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4">
-        <v>44199</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="11">
-        <v>191</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="17"/>
-      <c r="B49" s="4">
-        <v>44200</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="11">
-        <v>327</v>
-      </c>
-      <c r="E49" s="11">
-        <v>23</v>
-      </c>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="17"/>
-      <c r="B50" s="4">
-        <v>44201</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="11">
-        <v>301</v>
-      </c>
-      <c r="E50" s="11">
-        <v>14</v>
-      </c>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="17"/>
-      <c r="B51" s="4">
-        <v>44202</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="11">
-        <v>298</v>
-      </c>
-      <c r="E51" s="11">
-        <v>24</v>
-      </c>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="17"/>
-      <c r="B52" s="4">
-        <v>44203</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="11">
-        <v>280</v>
-      </c>
-      <c r="E52" s="11">
-        <v>77</v>
-      </c>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="18"/>
-      <c r="B53" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="12">
-        <f>SUM(D5:D52)</f>
-        <v>56172</v>
-      </c>
-      <c r="E53" s="12">
-        <f>SUM(E5:E52)</f>
-        <v>6593</v>
-      </c>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B53:C53"/>
+  <mergeCells count="15">
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1745,11 +1210,12 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -231,25 +231,25 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年1月14日（木）まで）</t>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>12月</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年1月21日（木）まで）</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -814,11 +814,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -843,7 +843,7 @@
     </row>
     <row r="2" spans="1:6" ht="24">
       <c r="A2" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -981,7 +981,7 @@
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="11">
@@ -1172,31 +1172,122 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="4">
+        <v>44211</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="11">
+        <v>203</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="17"/>
+      <c r="B31" s="4">
+        <v>44212</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11">
+        <v>127</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="4">
+        <v>44213</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="11">
+        <v>99</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17"/>
+      <c r="B33" s="4">
+        <v>44214</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="11">
+        <v>257</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="17"/>
+      <c r="B34" s="4">
+        <v>44215</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="11">
+        <v>193</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17"/>
+      <c r="B35" s="4">
+        <v>44216</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="11">
+        <v>220</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17"/>
+      <c r="B36" s="4">
+        <v>44217</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="11">
+        <v>215</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="12">
-        <f>SUM(D5:D29)</f>
-        <v>57640</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="12">
+        <f>SUM(D5:D36)</f>
+        <v>58954</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1215,7 +1306,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -122,19 +122,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※検査件数とは一致しない。</t>
-    <rPh sb="1" eb="3">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -238,7 +225,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年1月21日（木）まで）</t>
+    <t>　　（県合計・令和3年1月28日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -325,12 +312,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -447,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +514,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,11 +816,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -833,7 +835,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -843,7 +845,7 @@
     </row>
     <row r="2" spans="1:6" ht="24">
       <c r="A2" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -915,7 +917,7 @@
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="7">
@@ -926,7 +928,7 @@
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="7">
@@ -937,7 +939,7 @@
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="7">
@@ -948,7 +950,7 @@
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="7">
@@ -959,7 +961,7 @@
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="7">
@@ -970,7 +972,7 @@
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="12">
@@ -981,7 +983,7 @@
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="11">
@@ -995,7 +997,7 @@
         <v>44197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="11">
         <v>158</v>
@@ -1004,29 +1006,29 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="17"/>
-      <c r="B17" s="4">
+      <c r="B17" s="25">
         <v>44198</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="26">
         <v>170</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="17"/>
-      <c r="B18" s="4">
+      <c r="B18" s="25">
         <v>44199</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="26">
         <v>191</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="17"/>
@@ -1034,7 +1036,7 @@
         <v>44200</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11">
         <v>327</v>
@@ -1047,7 +1049,7 @@
         <v>44201</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11">
         <v>301</v>
@@ -1060,7 +1062,7 @@
         <v>44202</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="11">
         <v>298</v>
@@ -1073,7 +1075,7 @@
         <v>44203</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11">
         <v>280</v>
@@ -1086,7 +1088,7 @@
         <v>44204</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="11">
         <v>252</v>
@@ -1095,29 +1097,29 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="4">
+      <c r="B24" s="25">
         <v>44205</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="26">
         <v>160</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
-      <c r="B25" s="4">
+      <c r="B25" s="25">
         <v>44206</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="C25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="26">
         <v>115</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
@@ -1125,7 +1127,7 @@
         <v>44207</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="11">
         <v>148</v>
@@ -1138,7 +1140,7 @@
         <v>44208</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="11">
         <v>294</v>
@@ -1151,7 +1153,7 @@
         <v>44209</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="11">
         <v>263</v>
@@ -1164,7 +1166,7 @@
         <v>44210</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="11">
         <v>236</v>
@@ -1177,7 +1179,7 @@
         <v>44211</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="11">
         <v>203</v>
@@ -1186,29 +1188,29 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
-      <c r="B31" s="4">
+      <c r="B31" s="25">
         <v>44212</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="C31" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="26">
         <v>127</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
-      <c r="B32" s="4">
+      <c r="B32" s="25">
         <v>44213</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="26">
         <v>99</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
@@ -1216,7 +1218,7 @@
         <v>44214</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="11">
         <v>257</v>
@@ -1229,7 +1231,7 @@
         <v>44215</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="11">
         <v>193</v>
@@ -1242,7 +1244,7 @@
         <v>44216</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="11">
         <v>220</v>
@@ -1255,7 +1257,7 @@
         <v>44217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="11">
         <v>215</v>
@@ -1263,31 +1265,117 @@
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="12">
-        <f>SUM(D5:D36)</f>
-        <v>58954</v>
+      <c r="A37" s="17"/>
+      <c r="B37" s="4">
+        <v>44218</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="11">
+        <v>290</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="13"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="25">
+        <v>44219</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="26">
+        <v>129</v>
+      </c>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="25">
+        <v>44220</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="26">
+        <v>136</v>
+      </c>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4">
+        <v>44221</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="11">
+        <v>294</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4">
+        <v>44222</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="11">
+        <v>235</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4">
+        <v>44223</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="11">
+        <v>240</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4">
+        <v>44224</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="11">
+        <v>239</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="12">
+        <f>SUM(D5:D43)</f>
+        <v>60517</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1306,7 +1394,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -225,7 +225,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年1月28日（木）まで）</t>
+    <t>　　（県合計・令和3年2月4日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -235,7 +235,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -498,6 +498,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,15 +523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,11 +816,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -834,30 +834,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -872,10 +872,10 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5">
         <v>696</v>
       </c>
@@ -883,10 +883,10 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>3256</v>
       </c>
@@ -894,10 +894,10 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="7">
         <v>9961</v>
       </c>
@@ -905,10 +905,10 @@
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="7">
         <v>6961</v>
       </c>
@@ -916,10 +916,10 @@
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="7">
         <v>3019</v>
       </c>
@@ -927,10 +927,10 @@
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="7">
         <v>5404</v>
       </c>
@@ -938,10 +938,10 @@
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="7">
         <v>6809</v>
       </c>
@@ -949,10 +949,10 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="7">
         <v>3782</v>
       </c>
@@ -960,10 +960,10 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="7">
         <v>2862</v>
       </c>
@@ -971,10 +971,10 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="12">
         <v>5493</v>
       </c>
@@ -982,10 +982,10 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="11">
         <v>6204</v>
       </c>
@@ -1006,29 +1006,29 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="17"/>
-      <c r="B17" s="25">
+      <c r="B17" s="19">
         <v>44198</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="20">
         <v>170</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="17"/>
-      <c r="B18" s="25">
+      <c r="B18" s="19">
         <v>44199</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="20">
         <v>191</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="17"/>
@@ -1097,29 +1097,29 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="25">
+      <c r="B24" s="19">
         <v>44205</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="20">
         <v>160</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
-      <c r="B25" s="25">
+      <c r="B25" s="19">
         <v>44206</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="20">
         <v>115</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
@@ -1188,29 +1188,29 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
-      <c r="B31" s="25">
+      <c r="B31" s="19">
         <v>44212</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="20">
         <v>127</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
-      <c r="B32" s="25">
+      <c r="B32" s="19">
         <v>44213</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="20">
         <v>99</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
@@ -1279,29 +1279,29 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="17"/>
-      <c r="B38" s="25">
+      <c r="B38" s="19">
         <v>44219</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="20">
         <v>129</v>
       </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="17"/>
-      <c r="B39" s="25">
+      <c r="B39" s="19">
         <v>44220</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="20">
         <v>136</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="17"/>
@@ -1356,26 +1356,117 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>44225</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="11">
+        <v>209</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19">
+        <v>44226</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="20">
+        <v>101</v>
+      </c>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="19">
+        <v>44227</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="20">
+        <v>118</v>
+      </c>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="11">
+        <v>223</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4">
+        <v>44229</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="11">
+        <v>193</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17"/>
+      <c r="B49" s="4">
+        <v>44230</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="11">
+        <v>166</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4">
+        <v>44231</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="11">
+        <v>177</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="18"/>
+      <c r="B51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="12">
-        <f>SUM(D5:D43)</f>
-        <v>60517</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="13"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="12">
+        <f>SUM(D5:D50)</f>
+        <v>61704</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1394,7 +1485,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -225,7 +225,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年2月4日（木）まで）</t>
+    <t>　　（県合計・令和3年2月11日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -235,7 +235,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -816,11 +816,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1447,26 +1447,117 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4">
+        <v>44232</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="11">
+        <v>183</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17"/>
+      <c r="B52" s="19">
+        <v>44233</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="20">
+        <v>105</v>
+      </c>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19">
+        <v>44234</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="20">
+        <v>120</v>
+      </c>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4">
+        <v>44235</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="11">
+        <v>204</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="4">
+        <v>44236</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="11">
+        <v>162</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="17"/>
+      <c r="B56" s="4">
+        <v>44237</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="11">
+        <v>188</v>
+      </c>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19">
+        <v>44238</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="20">
+        <v>100</v>
+      </c>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="18"/>
+      <c r="B58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="12">
-        <f>SUM(D5:D50)</f>
-        <v>61704</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="13"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="12">
+        <f>SUM(D5:D57)</f>
+        <v>62766</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1485,7 +1576,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -225,7 +225,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年2月11日（木）まで）</t>
+    <t>　　（県合計・令和3年2月18日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -816,11 +816,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1538,26 +1538,117 @@
       <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="18"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="4">
+        <v>44239</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="11">
+        <v>191</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="17"/>
+      <c r="B59" s="19">
+        <v>44240</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="20">
+        <v>131</v>
+      </c>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17"/>
+      <c r="B60" s="19">
+        <v>44241</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="20">
+        <v>100</v>
+      </c>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="17"/>
+      <c r="B61" s="4">
+        <v>44242</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="11">
+        <v>211</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="17"/>
+      <c r="B62" s="4">
+        <v>44243</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="11">
+        <v>124</v>
+      </c>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="17"/>
+      <c r="B63" s="4">
+        <v>44244</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="11">
+        <v>152</v>
+      </c>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="17"/>
+      <c r="B64" s="4">
+        <v>44245</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="11">
+        <v>157</v>
+      </c>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="18"/>
+      <c r="B65" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="12">
-        <f>SUM(D5:D57)</f>
-        <v>62766</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="13"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="12">
+        <f>SUM(D5:D64)</f>
+        <v>63832</v>
+      </c>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1576,7 +1667,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -225,7 +225,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年2月18日（木）まで）</t>
+    <t>　　（県合計・令和3年2月25日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -237,6 +237,23 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和3年</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -326,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -425,6 +442,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -440,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,6 +553,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,11 +849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -991,664 +1024,365 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17"/>
-      <c r="B16" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11">
-        <v>158</v>
-      </c>
-      <c r="E16" s="12"/>
+    <row r="16" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="7">
+        <v>6498</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="17"/>
-      <c r="B17" s="19">
-        <v>44198</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="20">
-        <v>170</v>
-      </c>
-      <c r="E17" s="21"/>
+      <c r="B17" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11">
+        <v>223</v>
+      </c>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="17"/>
-      <c r="B18" s="19">
-        <v>44199</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="20">
-        <v>191</v>
-      </c>
-      <c r="E18" s="21"/>
+      <c r="B18" s="4">
+        <v>44229</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11">
+        <v>193</v>
+      </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="17"/>
       <c r="B19" s="4">
-        <v>44200</v>
+        <v>44230</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11">
-        <v>327</v>
+        <v>166</v>
       </c>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="17"/>
       <c r="B20" s="4">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="11">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17"/>
       <c r="B21" s="4">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D21" s="11">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="17"/>
-      <c r="B22" s="4">
-        <v>44203</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11">
-        <v>280</v>
-      </c>
-      <c r="E22" s="12"/>
+      <c r="B22" s="19">
+        <v>44233</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="20">
+        <v>105</v>
+      </c>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17"/>
-      <c r="B23" s="4">
-        <v>44204</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="11">
-        <v>252</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="B23" s="19">
+        <v>44234</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="20">
+        <v>120</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="19">
-        <v>44205</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="20">
-        <v>160</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="B24" s="4">
+        <v>44235</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11">
+        <v>204</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
-      <c r="B25" s="19">
-        <v>44206</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="20">
-        <v>115</v>
-      </c>
-      <c r="E25" s="21"/>
+      <c r="B25" s="4">
+        <v>44236</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11">
+        <v>162</v>
+      </c>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
       <c r="B26" s="4">
-        <v>44207</v>
+        <v>44237</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="11">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
-      <c r="B27" s="4">
-        <v>44208</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="11">
-        <v>294</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="B27" s="19">
+        <v>44238</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="20">
+        <v>100</v>
+      </c>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
       <c r="B28" s="4">
-        <v>44209</v>
+        <v>44239</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="11">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="17"/>
-      <c r="B29" s="4">
-        <v>44210</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="11">
-        <v>236</v>
-      </c>
-      <c r="E29" s="12"/>
+      <c r="B29" s="19">
+        <v>44240</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="20">
+        <v>131</v>
+      </c>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="17"/>
-      <c r="B30" s="4">
-        <v>44211</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="11">
-        <v>203</v>
-      </c>
-      <c r="E30" s="12"/>
+      <c r="B30" s="19">
+        <v>44241</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="20">
+        <v>100</v>
+      </c>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
-      <c r="B31" s="19">
-        <v>44212</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="20">
-        <v>127</v>
-      </c>
-      <c r="E31" s="21"/>
+      <c r="B31" s="4">
+        <v>44242</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="11">
+        <v>211</v>
+      </c>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
-      <c r="B32" s="19">
-        <v>44213</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="20">
-        <v>99</v>
-      </c>
-      <c r="E32" s="21"/>
+      <c r="B32" s="4">
+        <v>44243</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="11">
+        <v>124</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
       <c r="B33" s="4">
-        <v>44214</v>
+        <v>44244</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" s="11">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="17"/>
       <c r="B34" s="4">
-        <v>44215</v>
+        <v>44245</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" s="11">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="17"/>
       <c r="B35" s="4">
-        <v>44216</v>
+        <v>44246</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35" s="11">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="17"/>
-      <c r="B36" s="4">
-        <v>44217</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="11">
-        <v>215</v>
-      </c>
-      <c r="E36" s="12"/>
+      <c r="B36" s="19">
+        <v>44247</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20">
+        <v>84</v>
+      </c>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="17"/>
-      <c r="B37" s="4">
-        <v>44218</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="11">
-        <v>290</v>
-      </c>
-      <c r="E37" s="12"/>
+      <c r="B37" s="19">
+        <v>44248</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="20">
+        <v>86</v>
+      </c>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="17"/>
-      <c r="B38" s="19">
-        <v>44219</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="20">
-        <v>129</v>
-      </c>
-      <c r="E38" s="21"/>
+      <c r="B38" s="4">
+        <v>44249</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="11">
+        <v>158</v>
+      </c>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="17"/>
       <c r="B39" s="19">
-        <v>44220</v>
+        <v>44250</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" s="20">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="17"/>
       <c r="B40" s="4">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D40" s="11">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="17"/>
       <c r="B41" s="4">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" s="11">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="4">
-        <v>44223</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11">
-        <v>240</v>
+      <c r="A42" s="18"/>
+      <c r="B42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="12">
+        <f>SUM(D5:D41)</f>
+        <v>64815</v>
       </c>
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4">
-        <v>44224</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="11">
-        <v>239</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
-        <v>44225</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="11">
-        <v>209</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19">
-        <v>44226</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="20">
-        <v>101</v>
-      </c>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19">
-        <v>44227</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="20">
-        <v>118</v>
-      </c>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4">
-        <v>44228</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="11">
-        <v>223</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4">
-        <v>44229</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="11">
-        <v>193</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="17"/>
-      <c r="B49" s="4">
-        <v>44230</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="11">
-        <v>166</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="4">
-        <v>44231</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="11">
-        <v>177</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="17"/>
-      <c r="B51" s="4">
-        <v>44232</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="11">
-        <v>183</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19">
-        <v>44233</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="20">
-        <v>105</v>
-      </c>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="17"/>
-      <c r="B53" s="19">
-        <v>44234</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="20">
-        <v>120</v>
-      </c>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4">
-        <v>44235</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="11">
-        <v>204</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4">
-        <v>44236</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="11">
-        <v>162</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="4">
-        <v>44237</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="11">
-        <v>188</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="19">
-        <v>44238</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="20">
-        <v>100</v>
-      </c>
-      <c r="E57" s="21"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="17"/>
-      <c r="B58" s="4">
-        <v>44239</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="11">
-        <v>191</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="17"/>
-      <c r="B59" s="19">
-        <v>44240</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="20">
-        <v>131</v>
-      </c>
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="19">
-        <v>44241</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="20">
-        <v>100</v>
-      </c>
-      <c r="E60" s="21"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="17"/>
-      <c r="B61" s="4">
-        <v>44242</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="11">
-        <v>211</v>
-      </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="17"/>
-      <c r="B62" s="4">
-        <v>44243</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="11">
-        <v>124</v>
-      </c>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="17"/>
-      <c r="B63" s="4">
-        <v>44244</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="11">
-        <v>152</v>
-      </c>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="17"/>
-      <c r="B64" s="4">
-        <v>44245</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="11">
-        <v>157</v>
-      </c>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="12">
-        <f>SUM(D5:D64)</f>
-        <v>63832</v>
-      </c>
-      <c r="E65" s="12"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B65:C65"/>
+  <mergeCells count="16">
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1663,11 +1397,12 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$49</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -225,22 +225,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年2月25日（木）まで）</t>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -254,6 +238,22 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年3月4日（木）まで）</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -537,6 +537,9 @@
     <xf numFmtId="38" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,9 +556,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,11 +849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -867,30 +867,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -905,10 +905,10 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="5">
         <v>696</v>
       </c>
@@ -916,10 +916,10 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="7">
         <v>3256</v>
       </c>
@@ -927,10 +927,10 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7">
         <v>9961</v>
       </c>
@@ -938,10 +938,10 @@
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7">
         <v>6961</v>
       </c>
@@ -949,10 +949,10 @@
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="7">
         <v>3019</v>
       </c>
@@ -960,10 +960,10 @@
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="7">
         <v>5404</v>
       </c>
@@ -971,10 +971,10 @@
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="7">
         <v>6809</v>
       </c>
@@ -982,10 +982,10 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="7">
         <v>3782</v>
       </c>
@@ -993,10 +993,10 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="7">
         <v>2862</v>
       </c>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="12">
         <v>5493</v>
       </c>
@@ -1015,23 +1015,23 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="11">
         <v>6204</v>
       </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="B16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="7">
         <v>6498</v>
       </c>
@@ -1363,26 +1363,117 @@
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4">
+        <v>44253</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="11">
+        <v>208</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="19">
+        <v>44254</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="20">
+        <v>123</v>
+      </c>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="19">
+        <v>44255</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="20">
+        <v>103</v>
+      </c>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="11">
+        <v>206</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4">
+        <v>44257</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="11">
+        <v>157</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4">
+        <v>44258</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="11">
+        <v>133</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4">
+        <v>44259</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="11">
+        <v>129</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="18"/>
+      <c r="B49" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="12">
-        <f>SUM(D5:D41)</f>
-        <v>64815</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="12">
+        <f>SUM(D5:D48)</f>
+        <v>65874</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1402,7 +1493,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.69.1.21\disk1\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -242,7 +242,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年3月4日（木）まで）</t>
+    <t>　　（県合計・令和3年3月11日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -252,7 +252,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -849,11 +849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C49"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1019,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>6204</v>
       </c>
       <c r="E15" s="12"/>
@@ -1037,443 +1037,182 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="28.5" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="4">
-        <v>44228</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="11">
-        <v>223</v>
-      </c>
-      <c r="E17" s="12"/>
+      <c r="B17" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="7">
+        <v>4304</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="17"/>
       <c r="B18" s="4">
-        <v>44229</v>
+        <v>44256</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="17"/>
       <c r="B19" s="4">
-        <v>44230</v>
+        <v>44257</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="11">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="17"/>
       <c r="B20" s="4">
-        <v>44231</v>
+        <v>44258</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="11">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17"/>
       <c r="B21" s="4">
-        <v>44232</v>
+        <v>44259</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="11">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="17"/>
-      <c r="B22" s="19">
-        <v>44233</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="20">
-        <v>105</v>
-      </c>
-      <c r="E22" s="21"/>
+      <c r="B22" s="4">
+        <v>44260</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="11">
+        <v>138</v>
+      </c>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17"/>
       <c r="B23" s="19">
-        <v>44234</v>
+        <v>44261</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="20">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="4">
-        <v>44235</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="11">
-        <v>204</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="B24" s="19">
+        <v>44262</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="20">
+        <v>88</v>
+      </c>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
       <c r="B25" s="4">
-        <v>44236</v>
+        <v>44263</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
       <c r="B26" s="4">
-        <v>44237</v>
+        <v>44264</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="11">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
-      <c r="B27" s="19">
-        <v>44238</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="20">
-        <v>100</v>
-      </c>
-      <c r="E27" s="21"/>
+      <c r="B27" s="4">
+        <v>44265</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="11">
+        <v>188</v>
+      </c>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
       <c r="B28" s="4">
-        <v>44239</v>
+        <v>44266</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D28" s="11">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19">
-        <v>44240</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="20">
-        <v>131</v>
-      </c>
-      <c r="E29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="12">
+        <f>SUM(D5:D28)</f>
+        <v>67051</v>
+      </c>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19">
-        <v>44241</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="20">
-        <v>100</v>
-      </c>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="4">
-        <v>44242</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="11">
-        <v>211</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="4">
-        <v>44243</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="11">
-        <v>124</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="4">
-        <v>44244</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11">
-        <v>152</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="4">
-        <v>44245</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="11">
-        <v>157</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="17"/>
-      <c r="B35" s="4">
-        <v>44246</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="11">
-        <v>146</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19">
-        <v>44247</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20">
-        <v>84</v>
-      </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19">
-        <v>44248</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="20">
-        <v>86</v>
-      </c>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="4">
-        <v>44249</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="11">
-        <v>158</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19">
-        <v>44250</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="20">
-        <v>77</v>
-      </c>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="4">
-        <v>44251</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11">
-        <v>219</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4">
-        <v>44252</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="11">
-        <v>213</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="4">
-        <v>44253</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="11">
-        <v>208</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19">
-        <v>44254</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="20">
-        <v>123</v>
-      </c>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19">
-        <v>44255</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="20">
-        <v>103</v>
-      </c>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="4">
-        <v>44256</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="11">
-        <v>206</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="4">
-        <v>44257</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="11">
-        <v>157</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4">
-        <v>44258</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="11">
-        <v>133</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4">
-        <v>44259</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="11">
-        <v>129</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="12">
-        <f>SUM(D5:D48)</f>
-        <v>65874</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B49:C49"/>
+  <mergeCells count="17">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1493,7 +1232,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.69.1.21\disk1\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -242,7 +242,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年3月11日（木）まで）</t>
+    <t>　　（県合計・令和3年3月18日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -540,13 +540,13 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -849,11 +849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -905,7 +905,7 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="24"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="24"/>
@@ -927,7 +927,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="24"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="24"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24"/>
@@ -960,7 +960,7 @@
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="24"/>
@@ -971,7 +971,7 @@
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="24"/>
@@ -982,7 +982,7 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="24"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="24"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="24"/>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="24"/>
@@ -1028,7 +1028,7 @@
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="24"/>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="24"/>
@@ -1192,27 +1192,119 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="4">
+        <v>44267</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="11">
+        <v>158</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19">
+        <v>44268</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20">
+        <v>97</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19">
+        <v>44269</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="20">
+        <v>109</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="4">
+        <v>44270</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="11">
+        <v>193</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17"/>
+      <c r="B33" s="4">
+        <v>44271</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="11">
+        <v>180</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="17"/>
+      <c r="B34" s="4">
+        <v>44272</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="11">
+        <v>166</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17"/>
+      <c r="B35" s="4">
+        <v>44273</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="11">
+        <v>200</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="18"/>
+      <c r="B36" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="12">
-        <f>SUM(D5:D28)</f>
-        <v>67051</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="12">
+        <f>SUM(D5:D35)</f>
+        <v>68154</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1227,12 +1319,11 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -242,7 +242,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年3月18日（木）まで）</t>
+    <t>　　（県合計・令和3年3月25日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -849,11 +849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1283,47 +1283,138 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="18"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="4">
+        <v>44274</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="11">
+        <v>212</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19">
+        <v>44275</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="20">
+        <v>116</v>
+      </c>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="17"/>
+      <c r="B38" s="19">
+        <v>44276</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="20">
+        <v>120</v>
+      </c>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17"/>
+      <c r="B39" s="4">
+        <v>44277</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="11">
+        <v>230</v>
+      </c>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4">
+        <v>44278</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="11">
+        <v>197</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4">
+        <v>44279</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="11">
+        <v>244</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4">
+        <v>44280</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="11">
+        <v>230</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="18"/>
+      <c r="B43" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="12">
-        <f>SUM(D5:D35)</f>
-        <v>68154</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="13"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="12">
+        <f>SUM(D5:D42)</f>
+        <v>69503</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -242,7 +242,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年3月25日（木）まで）</t>
+    <t>　　（県合計・令和3年4月1日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -252,7 +252,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -849,11 +849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1374,22 +1374,113 @@
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="18"/>
-      <c r="B43" s="25" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4">
+        <v>44281</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="11">
+        <v>234</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="19">
+        <v>44282</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="20">
+        <v>141</v>
+      </c>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19">
+        <v>44283</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="20">
+        <v>160</v>
+      </c>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4">
+        <v>44284</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="11">
+        <v>296</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4">
+        <v>44285</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="11">
+        <v>255</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4">
+        <v>44286</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="11">
+        <v>269</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17"/>
+      <c r="B49" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="11">
+        <v>296</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="12">
-        <f>SUM(D5:D42)</f>
-        <v>69503</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="12">
+        <f>SUM(D5:D49)</f>
+        <v>71154</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1406,7 +1497,7 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1414,7 +1505,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$57</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -242,7 +242,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年4月1日（木）まで）</t>
+    <t>　　（県合計・令和3年4月8日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -546,9 +546,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,6 +553,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,11 +849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -867,30 +867,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1465,47 +1465,138 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4">
+        <v>44288</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="11">
+        <v>245</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4">
+        <v>44289</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="20">
+        <v>171</v>
+      </c>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17"/>
+      <c r="B52" s="4">
+        <v>44290</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="20">
+        <v>171</v>
+      </c>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17"/>
+      <c r="B53" s="4">
+        <v>44291</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="11">
+        <v>278</v>
+      </c>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4">
+        <v>44292</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="11">
+        <v>248</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="4">
+        <v>44293</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="11">
+        <v>267</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="17"/>
+      <c r="B56" s="4">
+        <v>44294</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="11">
+        <v>255</v>
+      </c>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="18"/>
+      <c r="B57" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="12">
-        <f>SUM(D5:D49)</f>
-        <v>71154</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="13"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="12">
+        <f>SUM(D5:D56)</f>
+        <v>72789</v>
+      </c>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -242,7 +242,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年4月8日（木）まで）</t>
+    <t>　　（県合計・令和3年4月15日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -252,10 +252,13 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月</t>
   </si>
 </sst>
 </file>
@@ -546,6 +549,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,6 +572,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -849,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -867,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1048,555 +1052,255 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="28.5" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="4">
-        <v>44256</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11">
-        <v>206</v>
-      </c>
-      <c r="E18" s="12"/>
+      <c r="B18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="7">
+        <v>5609</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="17"/>
       <c r="B19" s="4">
-        <v>44257</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="11">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="17"/>
       <c r="B20" s="4">
-        <v>44258</v>
+        <v>44288</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="11">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17"/>
-      <c r="B21" s="4">
-        <v>44259</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="11">
-        <v>129</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="B21" s="19">
+        <v>44289</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="20">
+        <v>171</v>
+      </c>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="17"/>
-      <c r="B22" s="4">
-        <v>44260</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11">
-        <v>138</v>
-      </c>
-      <c r="E22" s="12"/>
+      <c r="B22" s="19">
+        <v>44290</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="20">
+        <v>171</v>
+      </c>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17"/>
-      <c r="B23" s="19">
-        <v>44261</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="20">
-        <v>93</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="B23" s="4">
+        <v>44291</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="11">
+        <v>278</v>
+      </c>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="19">
-        <v>44262</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="20">
-        <v>88</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="B24" s="4">
+        <v>44292</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="11">
+        <v>248</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
       <c r="B25" s="4">
-        <v>44263</v>
+        <v>44293</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" s="11">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
       <c r="B26" s="4">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" s="11">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
       <c r="B27" s="4">
-        <v>44265</v>
+        <v>44295</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="11">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
-      <c r="B28" s="4">
-        <v>44266</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="11">
-        <v>178</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="B28" s="19">
+        <v>44296</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="20">
+        <v>188</v>
+      </c>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="17"/>
-      <c r="B29" s="4">
-        <v>44267</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="11">
-        <v>158</v>
-      </c>
-      <c r="E29" s="12"/>
+      <c r="B29" s="19">
+        <v>44297</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="20">
+        <v>168</v>
+      </c>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="17"/>
-      <c r="B30" s="19">
-        <v>44268</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20">
-        <v>97</v>
-      </c>
-      <c r="E30" s="21"/>
+      <c r="B30" s="4">
+        <v>44298</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="11">
+        <v>323</v>
+      </c>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
-      <c r="B31" s="19">
-        <v>44269</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="20">
-        <v>109</v>
-      </c>
-      <c r="E31" s="21"/>
+      <c r="B31" s="4">
+        <v>44299</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="11">
+        <v>300</v>
+      </c>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
       <c r="B32" s="4">
-        <v>44270</v>
+        <v>44300</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" s="11">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
       <c r="B33" s="4">
-        <v>44271</v>
+        <v>44301</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" s="11">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="4">
-        <v>44272</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="11">
-        <v>166</v>
+      <c r="A34" s="18"/>
+      <c r="B34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="12">
+        <f>SUM(D5:D33)</f>
+        <v>74633</v>
       </c>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="17"/>
-      <c r="B35" s="4">
-        <v>44273</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11">
-        <v>200</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="17"/>
-      <c r="B36" s="4">
-        <v>44274</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="11">
-        <v>212</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19">
-        <v>44275</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="20">
-        <v>116</v>
-      </c>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19">
-        <v>44276</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="20">
-        <v>120</v>
-      </c>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="17"/>
-      <c r="B39" s="4">
-        <v>44277</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="11">
-        <v>230</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="4">
-        <v>44278</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="11">
-        <v>197</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4">
-        <v>44279</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11">
-        <v>244</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="4">
-        <v>44280</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="11">
-        <v>230</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4">
-        <v>44281</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="11">
-        <v>234</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19">
-        <v>44282</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="20">
-        <v>141</v>
-      </c>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19">
-        <v>44283</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="20">
-        <v>160</v>
-      </c>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="4">
-        <v>44284</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="11">
-        <v>296</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4">
-        <v>44285</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="11">
-        <v>255</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4">
-        <v>44286</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="11">
-        <v>269</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="17"/>
-      <c r="B49" s="4">
-        <v>44287</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="11">
-        <v>296</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="4">
-        <v>44288</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="11">
-        <v>245</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="17"/>
-      <c r="B51" s="4">
-        <v>44289</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="20">
-        <v>171</v>
-      </c>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="17"/>
-      <c r="B52" s="4">
-        <v>44290</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="20">
-        <v>171</v>
-      </c>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="17"/>
-      <c r="B53" s="4">
-        <v>44291</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="11">
-        <v>278</v>
-      </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4">
-        <v>44292</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="11">
-        <v>248</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4">
-        <v>44293</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="11">
-        <v>267</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="4">
-        <v>44294</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="11">
-        <v>255</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="18"/>
-      <c r="B57" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="12">
-        <f>SUM(D5:D56)</f>
-        <v>72789</v>
-      </c>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="18">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -242,7 +242,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年4月15日（木）まで）</t>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年4月22日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -256,9 +259,6 @@
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3月</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="2" spans="1:6" ht="24">
       <c r="A2" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1055,7 +1055,7 @@
     <row r="18" spans="1:5" ht="28.5" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="7">
@@ -1259,22 +1259,113 @@
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="4">
+        <v>44302</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="11">
+        <v>309</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17"/>
+      <c r="B35" s="19">
+        <v>44303</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20">
+        <v>205</v>
+      </c>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17"/>
+      <c r="B36" s="19">
+        <v>44304</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="20">
+        <v>197</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17"/>
+      <c r="B37" s="4">
+        <v>44305</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="11">
+        <v>314</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="17"/>
+      <c r="B38" s="4">
+        <v>44306</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="11">
+        <v>305</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17"/>
+      <c r="B39" s="4">
+        <v>44307</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="11">
+        <v>301</v>
+      </c>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4">
+        <v>44308</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="11">
+        <v>351</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="12">
-        <f>SUM(D5:D33)</f>
-        <v>74633</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="13"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="12">
+        <f>SUM(D5:D40)</f>
+        <v>76615</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1291,7 +1382,7 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1300,7 +1391,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$48</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年4月22日（木）まで）</t>
+    <t>　　（県合計・令和3年4月29日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -549,9 +549,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +556,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1350,48 +1350,139 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4">
+        <v>44309</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11">
+        <v>322</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="19">
+        <v>44310</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="20">
+        <v>217</v>
+      </c>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="19">
+        <v>44311</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="20">
+        <v>211</v>
+      </c>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>44312</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="11">
+        <v>307</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4">
+        <v>44313</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="11">
+        <v>299</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4">
+        <v>44314</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="11">
+        <v>238</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4">
+        <v>44315</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="11">
+        <v>175</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="18"/>
+      <c r="B48" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="12">
-        <f>SUM(D5:D40)</f>
-        <v>76615</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="13"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="12">
+        <f>SUM(D5:D47)</f>
+        <v>78384</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年4月29日（木）まで）</t>
+    <t>　　（県合計・令和3年4月22日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -549,6 +549,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1350,139 +1350,48 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4">
-        <v>44309</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="11">
-        <v>322</v>
+      <c r="A41" s="18"/>
+      <c r="B41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="12">
+        <f>SUM(D5:D40)</f>
+        <v>76615</v>
       </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19">
-        <v>44310</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="20">
-        <v>217</v>
-      </c>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19">
-        <v>44311</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="20">
-        <v>211</v>
-      </c>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
-        <v>44312</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="11">
-        <v>307</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="4">
-        <v>44313</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="11">
-        <v>299</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="4">
-        <v>44314</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="11">
-        <v>238</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4">
-        <v>44315</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="11">
-        <v>175</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="18"/>
-      <c r="B48" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="12">
-        <f>SUM(D5:D47)</f>
-        <v>78384</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年4月22日（木）まで）</t>
+    <t>　　（県合計・令和3年5月6日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -255,7 +255,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -549,9 +549,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +556,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1350,48 +1350,230 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4">
+        <v>44309</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11">
+        <v>322</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="19">
+        <v>44310</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="20">
+        <v>217</v>
+      </c>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="19">
+        <v>44311</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="20">
+        <v>211</v>
+      </c>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>44312</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="11">
+        <v>307</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4">
+        <v>44313</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="11">
+        <v>299</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4">
+        <v>44314</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="11">
+        <v>238</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="19">
+        <v>44315</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="20">
+        <v>175</v>
+      </c>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4">
+        <v>44316</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="11">
+        <v>273</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19">
+        <v>44317</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="20">
+        <v>160</v>
+      </c>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17"/>
+      <c r="B50" s="19">
+        <v>44318</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="20">
+        <v>192</v>
+      </c>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="17"/>
+      <c r="B51" s="19">
+        <v>44319</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="20">
+        <v>281</v>
+      </c>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17"/>
+      <c r="B52" s="19">
+        <v>44320</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="20">
+        <v>253</v>
+      </c>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19">
+        <v>44321</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="20">
+        <v>294</v>
+      </c>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4">
+        <v>44322</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="11">
+        <v>421</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="18"/>
+      <c r="B55" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="12">
-        <f>SUM(D5:D40)</f>
-        <v>76615</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="13"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="12">
+        <f>SUM(D5:D54)</f>
+        <v>80258</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年5月6日（木）まで）</t>
+    <t>　　（県合計・令和3年5月13日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -255,7 +255,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -549,6 +549,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1532,48 +1532,139 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="18"/>
-      <c r="B55" s="28" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="4">
+        <v>44323</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="11">
+        <v>341</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="17"/>
+      <c r="B56" s="19">
+        <v>44324</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="20">
+        <v>242</v>
+      </c>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19">
+        <v>44325</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="20">
+        <v>220</v>
+      </c>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="17"/>
+      <c r="B58" s="4">
+        <v>44326</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="11">
+        <v>474</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="17"/>
+      <c r="B59" s="4">
+        <v>44327</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="11">
+        <v>350</v>
+      </c>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17"/>
+      <c r="B60" s="4">
+        <v>44328</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="11">
+        <v>241</v>
+      </c>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="17"/>
+      <c r="B61" s="4">
+        <v>44329</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="11">
+        <v>266</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="12">
-        <f>SUM(D5:D54)</f>
-        <v>80258</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="13"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="12">
+        <f>SUM(D5:D61)</f>
+        <v>82392</v>
+      </c>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年5月13日（木）まで）</t>
+    <t>　　（県合計・令和3年5月20日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -549,9 +549,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +556,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1063,608 +1063,321 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="28.5" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="4">
-        <v>44287</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11">
-        <v>296</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="B19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="7">
+        <v>7799</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="17"/>
-      <c r="B20" s="4">
-        <v>44288</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11">
-        <v>245</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="B20" s="19">
+        <v>44317</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="20">
+        <v>160</v>
+      </c>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17"/>
       <c r="B21" s="19">
-        <v>44289</v>
+        <v>44318</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="20">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="17"/>
       <c r="B22" s="19">
-        <v>44290</v>
+        <v>44319</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="20">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17"/>
-      <c r="B23" s="4">
-        <v>44291</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="11">
-        <v>278</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="B23" s="19">
+        <v>44320</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="20">
+        <v>253</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="4">
-        <v>44292</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="11">
-        <v>248</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="B24" s="19">
+        <v>44321</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="20">
+        <v>294</v>
+      </c>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
       <c r="B25" s="4">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="11">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
       <c r="B26" s="4">
-        <v>44294</v>
+        <v>44323</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D26" s="11">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
-      <c r="B27" s="4">
-        <v>44295</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="11">
-        <v>285</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="B27" s="19">
+        <v>44324</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="20">
+        <v>242</v>
+      </c>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
       <c r="B28" s="19">
-        <v>44296</v>
+        <v>44325</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="20">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="17"/>
-      <c r="B29" s="19">
-        <v>44297</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="20">
-        <v>168</v>
-      </c>
-      <c r="E29" s="21"/>
+      <c r="B29" s="4">
+        <v>44326</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="11">
+        <v>474</v>
+      </c>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="17"/>
       <c r="B30" s="4">
-        <v>44298</v>
+        <v>44327</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="11">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
       <c r="B31" s="4">
-        <v>44299</v>
+        <v>44328</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="11">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
       <c r="B32" s="4">
-        <v>44300</v>
+        <v>44329</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="11">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
       <c r="B33" s="4">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D33" s="11">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="17"/>
-      <c r="B34" s="4">
-        <v>44302</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="11">
-        <v>309</v>
-      </c>
-      <c r="E34" s="12"/>
+      <c r="B34" s="19">
+        <v>44331</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <v>195</v>
+      </c>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="17"/>
       <c r="B35" s="19">
-        <v>44303</v>
+        <v>44332</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="20">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="17"/>
-      <c r="B36" s="19">
-        <v>44304</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="20">
-        <v>197</v>
-      </c>
-      <c r="E36" s="21"/>
+      <c r="B36" s="4">
+        <v>44333</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="11">
+        <v>411</v>
+      </c>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="17"/>
       <c r="B37" s="4">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="17"/>
       <c r="B38" s="4">
-        <v>44306</v>
+        <v>44335</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="11">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="17"/>
       <c r="B39" s="4">
-        <v>44307</v>
+        <v>44336</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="11">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="4">
-        <v>44308</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="11">
-        <v>351</v>
+      <c r="A40" s="18"/>
+      <c r="B40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="12">
+        <f>SUM(D5:D39)</f>
+        <v>84390</v>
       </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4">
-        <v>44309</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="11">
-        <v>322</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19">
-        <v>44310</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="20">
-        <v>217</v>
-      </c>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19">
-        <v>44311</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="20">
-        <v>211</v>
-      </c>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
-        <v>44312</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="11">
-        <v>307</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="4">
-        <v>44313</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="11">
-        <v>299</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="4">
-        <v>44314</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="11">
-        <v>238</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19">
-        <v>44315</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="20">
-        <v>175</v>
-      </c>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4">
-        <v>44316</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="11">
-        <v>273</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19">
-        <v>44317</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="20">
-        <v>160</v>
-      </c>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="19">
-        <v>44318</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="20">
-        <v>192</v>
-      </c>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="17"/>
-      <c r="B51" s="19">
-        <v>44319</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="20">
-        <v>281</v>
-      </c>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19">
-        <v>44320</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="20">
-        <v>253</v>
-      </c>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="17"/>
-      <c r="B53" s="19">
-        <v>44321</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="20">
-        <v>294</v>
-      </c>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4">
-        <v>44322</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="11">
-        <v>421</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4">
-        <v>44323</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="11">
-        <v>341</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="19">
-        <v>44324</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="20">
-        <v>242</v>
-      </c>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="19">
-        <v>44325</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="20">
-        <v>220</v>
-      </c>
-      <c r="E57" s="21"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="17"/>
-      <c r="B58" s="4">
-        <v>44326</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="11">
-        <v>474</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="17"/>
-      <c r="B59" s="4">
-        <v>44327</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="11">
-        <v>350</v>
-      </c>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="4">
-        <v>44328</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="11">
-        <v>241</v>
-      </c>
-      <c r="E60" s="12"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="17"/>
-      <c r="B61" s="4">
-        <v>44329</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="11">
-        <v>266</v>
-      </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="12">
-        <f>SUM(D5:D61)</f>
-        <v>82392</v>
-      </c>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年5月20日（木）まで）</t>
+    <t>　　（県合計・令和3年5月27日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -549,6 +549,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1335,49 +1335,140 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4">
+        <v>44337</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="11">
+        <v>300</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19">
+        <v>44338</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="20">
+        <v>199</v>
+      </c>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="19">
+        <v>44339</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="20">
+        <v>175</v>
+      </c>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4">
+        <v>44340</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="11">
+        <v>334</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>44341</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="11">
+        <v>227</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4">
+        <v>44342</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="11">
+        <v>238</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4">
+        <v>44343</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="11">
+        <v>237</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="18"/>
+      <c r="B47" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="12">
+      <c r="C47" s="24"/>
+      <c r="D47" s="12">
         <f>SUM(D5:D39)</f>
         <v>84390</v>
       </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="13"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年5月27日（木）まで）</t>
+    <t>　　（県合計・令和3年6月3日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -255,7 +255,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -549,9 +549,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +556,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1426,49 +1426,140 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4">
+        <v>44344</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="11">
+        <v>341</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="19">
+        <v>44345</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="20">
+        <v>189</v>
+      </c>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19">
+        <v>44346</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="20">
+        <v>173</v>
+      </c>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4">
+        <v>44347</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="11">
+        <v>357</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="11">
+        <v>344</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17"/>
+      <c r="B52" s="4">
+        <v>44349</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="11">
+        <v>346</v>
+      </c>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17"/>
+      <c r="B53" s="4">
+        <v>44350</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="11">
+        <v>352</v>
+      </c>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="18"/>
+      <c r="B54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="12">
+      <c r="C54" s="24"/>
+      <c r="D54" s="12">
         <f>SUM(D5:D39)</f>
         <v>84390</v>
       </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="13"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年6月3日（木）まで）</t>
+    <t>　　（県合計・令和3年6月10日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -255,7 +255,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -549,6 +549,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +853,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1517,49 +1517,140 @@
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="18"/>
-      <c r="B54" s="28" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4">
+        <v>44351</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="11">
+        <v>271</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="4">
+        <v>44352</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="20">
+        <v>139</v>
+      </c>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="17"/>
+      <c r="B56" s="4">
+        <v>44353</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="20">
+        <v>166</v>
+      </c>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="17"/>
+      <c r="B57" s="4">
+        <v>44354</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="11">
+        <v>335</v>
+      </c>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="17"/>
+      <c r="B58" s="4">
+        <v>44355</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="11">
+        <v>203</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="17"/>
+      <c r="B59" s="4">
+        <v>44356</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="11">
+        <v>223</v>
+      </c>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17"/>
+      <c r="B60" s="4">
+        <v>44357</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="11">
+        <v>225</v>
+      </c>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="12">
-        <f>SUM(D5:D39)</f>
-        <v>84390</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="13"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="12">
+        <f>SUM(D5:D60)</f>
+        <v>89764</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11760" windowHeight="4500"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,7 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年6月10日（木）まで）</t>
+    <t>　　（県合計・令和3年6月17日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -259,6 +259,9 @@
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5月</t>
   </si>
 </sst>
 </file>
@@ -549,9 +552,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +559,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +856,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,30 +874,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1074,583 +1077,283 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="28.5" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="19">
-        <v>44317</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="20">
-        <v>160</v>
-      </c>
-      <c r="E20" s="21"/>
+      <c r="B20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="7">
+        <v>8503</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17"/>
-      <c r="B21" s="19">
-        <v>44318</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="20">
-        <v>192</v>
-      </c>
-      <c r="E21" s="21"/>
+      <c r="B21" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11">
+        <v>344</v>
+      </c>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="17"/>
-      <c r="B22" s="19">
-        <v>44319</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="20">
-        <v>281</v>
-      </c>
-      <c r="E22" s="21"/>
+      <c r="B22" s="4">
+        <v>44349</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11">
+        <v>346</v>
+      </c>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17"/>
-      <c r="B23" s="19">
-        <v>44320</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="20">
-        <v>253</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="B23" s="4">
+        <v>44350</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11">
+        <v>352</v>
+      </c>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="19">
-        <v>44321</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="20">
-        <v>294</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="B24" s="4">
+        <v>44351</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="11">
+        <v>271</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
-      <c r="B25" s="4">
-        <v>44322</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="11">
-        <v>421</v>
-      </c>
-      <c r="E25" s="12"/>
+      <c r="B25" s="19">
+        <v>44352</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="20">
+        <v>139</v>
+      </c>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
-      <c r="B26" s="4">
-        <v>44323</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="11">
-        <v>341</v>
-      </c>
-      <c r="E26" s="12"/>
+      <c r="B26" s="19">
+        <v>44353</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="20">
+        <v>166</v>
+      </c>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
-      <c r="B27" s="19">
-        <v>44324</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="20">
-        <v>242</v>
-      </c>
-      <c r="E27" s="21"/>
+      <c r="B27" s="4">
+        <v>44354</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11">
+        <v>335</v>
+      </c>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
-      <c r="B28" s="19">
-        <v>44325</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="20">
-        <v>220</v>
-      </c>
-      <c r="E28" s="21"/>
+      <c r="B28" s="4">
+        <v>44355</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="11">
+        <v>203</v>
+      </c>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="17"/>
       <c r="B29" s="4">
-        <v>44326</v>
+        <v>44356</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" s="11">
-        <v>474</v>
+        <v>223</v>
       </c>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="17"/>
       <c r="B30" s="4">
-        <v>44327</v>
+        <v>44357</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="11">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
       <c r="B31" s="4">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D31" s="11">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
-      <c r="B32" s="4">
-        <v>44329</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="11">
-        <v>266</v>
-      </c>
-      <c r="E32" s="12"/>
+      <c r="B32" s="19">
+        <v>44359</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="20">
+        <v>175</v>
+      </c>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
-      <c r="B33" s="4">
-        <v>44330</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="11">
-        <v>311</v>
-      </c>
-      <c r="E33" s="12"/>
+      <c r="B33" s="19">
+        <v>44360</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="20">
+        <v>105</v>
+      </c>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="17"/>
-      <c r="B34" s="19">
-        <v>44331</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <v>195</v>
-      </c>
-      <c r="E34" s="21"/>
+      <c r="B34" s="4">
+        <v>44361</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="11">
+        <v>265</v>
+      </c>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="17"/>
-      <c r="B35" s="19">
-        <v>44332</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="20">
-        <v>217</v>
-      </c>
-      <c r="E35" s="21"/>
+      <c r="B35" s="4">
+        <v>44362</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="11">
+        <v>186</v>
+      </c>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="17"/>
       <c r="B36" s="4">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D36" s="11">
-        <v>411</v>
+        <v>166</v>
       </c>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="17"/>
       <c r="B37" s="4">
-        <v>44334</v>
+        <v>44364</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" s="11">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="4">
-        <v>44335</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11">
-        <v>298</v>
+      <c r="A38" s="18"/>
+      <c r="B38" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="12">
+        <f>SUM(D5:D37)</f>
+        <v>91004</v>
       </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="17"/>
-      <c r="B39" s="4">
-        <v>44336</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="11">
-        <v>255</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="4">
-        <v>44337</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="11">
-        <v>300</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19">
-        <v>44338</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="20">
-        <v>199</v>
-      </c>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19">
-        <v>44339</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="20">
-        <v>175</v>
-      </c>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4">
-        <v>44340</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="11">
-        <v>334</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
-        <v>44341</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="11">
-        <v>227</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="4">
-        <v>44342</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="11">
-        <v>238</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="4">
-        <v>44343</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="11">
-        <v>237</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4">
-        <v>44344</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="11">
-        <v>341</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19">
-        <v>44345</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="20">
-        <v>189</v>
-      </c>
-      <c r="E48" s="21"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19">
-        <v>44346</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="20">
-        <v>173</v>
-      </c>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="4">
-        <v>44347</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="11">
-        <v>357</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="17"/>
-      <c r="B51" s="4">
-        <v>44348</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="11">
-        <v>344</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="17"/>
-      <c r="B52" s="4">
-        <v>44349</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="11">
-        <v>346</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="17"/>
-      <c r="B53" s="4">
-        <v>44350</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="11">
-        <v>352</v>
-      </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4">
-        <v>44351</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="11">
-        <v>271</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4">
-        <v>44352</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="20">
-        <v>139</v>
-      </c>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="4">
-        <v>44353</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="20">
-        <v>166</v>
-      </c>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="4">
-        <v>44354</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="11">
-        <v>335</v>
-      </c>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="17"/>
-      <c r="B58" s="4">
-        <v>44355</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="11">
-        <v>203</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="17"/>
-      <c r="B59" s="4">
-        <v>44356</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="11">
-        <v>223</v>
-      </c>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="4">
-        <v>44357</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="11">
-        <v>225</v>
-      </c>
-      <c r="E60" s="12"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="12">
-        <f>SUM(D5:D60)</f>
-        <v>89764</v>
-      </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11760" windowHeight="4500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -245,7 +245,10 @@
     <t>3月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年6月17日（木）まで）</t>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年7月1日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -255,13 +258,10 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5月</t>
   </si>
 </sst>
 </file>
@@ -552,6 +552,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,9 +562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,11 +856,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -874,30 +874,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1080,7 @@
     <row r="20" spans="1:5" ht="28.5" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="7">
@@ -1310,50 +1310,232 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="4">
+        <v>44365</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="11">
+        <v>128</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19">
+        <v>44366</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="20">
+        <v>83</v>
+      </c>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19">
+        <v>44367</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="20">
+        <v>93</v>
+      </c>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4">
+        <v>44368</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="11">
+        <v>174</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4">
+        <v>44369</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="11">
+        <v>128</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4">
+        <v>44370</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="11">
+        <v>173</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>44371</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="11">
+        <v>109</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4">
+        <v>44372</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="11">
+        <v>119</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="19">
+        <v>44373</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="20">
+        <v>84</v>
+      </c>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="19">
+        <v>44374</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="20">
+        <v>78</v>
+      </c>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4">
+        <v>44375</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="11">
+        <v>140</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17"/>
+      <c r="B49" s="4">
+        <v>44376</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="11">
+        <v>137</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4">
+        <v>44377</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="11">
+        <v>109</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="11">
+        <v>114</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="12">
-        <f>SUM(D5:D37)</f>
-        <v>91004</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="13"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="12">
+        <f>SUM(D5:D51)</f>
+        <v>92673</v>
+      </c>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -248,7 +248,11 @@
     <t>5月</t>
   </si>
   <si>
-    <t>　　（県合計・令和3年7月1日（木）まで）</t>
+    <t>6月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年7月8日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -856,11 +860,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -885,7 +889,7 @@
     </row>
     <row r="2" spans="1:6" ht="24">
       <c r="A2" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1088,429 +1092,141 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="28.5" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="4">
-        <v>44348</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="11">
-        <v>344</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="B21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="7">
+        <v>5399</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="17"/>
       <c r="B22" s="4">
-        <v>44349</v>
+        <v>44378</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11">
-        <v>346</v>
+        <v>114</v>
       </c>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17"/>
       <c r="B23" s="4">
-        <v>44350</v>
+        <v>44379</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="11">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="4">
-        <v>44351</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="11">
-        <v>271</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="B24" s="19">
+        <v>44380</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="20">
+        <v>94</v>
+      </c>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
       <c r="B25" s="19">
-        <v>44352</v>
+        <v>44381</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="20">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
-      <c r="B26" s="19">
-        <v>44353</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="20">
-        <v>166</v>
-      </c>
-      <c r="E26" s="21"/>
+      <c r="B26" s="4">
+        <v>44382</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="11">
+        <v>196</v>
+      </c>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
       <c r="B27" s="4">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="11">
-        <v>335</v>
+        <v>140</v>
       </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
       <c r="B28" s="4">
-        <v>44355</v>
+        <v>44384</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="11">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="17"/>
       <c r="B29" s="4">
-        <v>44356</v>
+        <v>44385</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="11">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="4">
-        <v>44357</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="11">
-        <v>225</v>
+      <c r="A30" s="18"/>
+      <c r="B30" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="12">
+        <f>SUM(D5:D29)</f>
+        <v>93555</v>
       </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="4">
-        <v>44358</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="11">
-        <v>209</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19">
-        <v>44359</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="20">
-        <v>175</v>
-      </c>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19">
-        <v>44360</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="20">
-        <v>105</v>
-      </c>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="4">
-        <v>44361</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="11">
-        <v>265</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="17"/>
-      <c r="B35" s="4">
-        <v>44362</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="11">
-        <v>186</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="17"/>
-      <c r="B36" s="4">
-        <v>44363</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="11">
-        <v>166</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="4">
-        <v>44364</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="11">
-        <v>134</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="4">
-        <v>44365</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="11">
-        <v>128</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19">
-        <v>44366</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="20">
-        <v>83</v>
-      </c>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19">
-        <v>44367</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="20">
-        <v>93</v>
-      </c>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4">
-        <v>44368</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="11">
-        <v>174</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="4">
-        <v>44369</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="11">
-        <v>128</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4">
-        <v>44370</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11">
-        <v>173</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
-        <v>44371</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="11">
-        <v>109</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="4">
-        <v>44372</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="11">
-        <v>119</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19">
-        <v>44373</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="20">
-        <v>84</v>
-      </c>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19">
-        <v>44374</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="20">
-        <v>78</v>
-      </c>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4">
-        <v>44375</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="11">
-        <v>140</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="17"/>
-      <c r="B49" s="4">
-        <v>44376</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="11">
-        <v>137</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="4">
-        <v>44377</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="11">
-        <v>109</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="17"/>
-      <c r="B51" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="11">
-        <v>114</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="12">
-        <f>SUM(D5:D51)</f>
-        <v>92673</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1524,18 +1240,19 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -252,7 +252,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年7月8日（木）まで）</t>
+    <t>　　（県合計・令和3年7月22日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -262,7 +262,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -860,11 +860,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1208,22 +1208,190 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="4">
+        <v>44386</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11">
+        <v>168</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="17"/>
+      <c r="B31" s="4">
+        <v>44387</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20">
+        <v>93</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="4">
+        <v>44388</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="20">
+        <v>96</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17"/>
+      <c r="B33" s="4">
+        <v>44389</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11">
+        <v>188</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="17"/>
+      <c r="B34" s="4">
+        <v>44390</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="11">
+        <v>187</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17"/>
+      <c r="B35" s="4">
+        <v>44391</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="11">
+        <v>162</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17"/>
+      <c r="B36" s="4">
+        <v>44392</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="11">
+        <v>158</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17"/>
+      <c r="B37" s="4">
+        <v>44393</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="17"/>
+      <c r="B38" s="4">
+        <v>44394</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17"/>
+      <c r="B39" s="4">
+        <v>44395</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4">
+        <v>44396</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4">
+        <v>44397</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4">
+        <v>44398</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4">
+        <v>44399</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="18"/>
+      <c r="B44" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="12">
-        <f>SUM(D5:D29)</f>
-        <v>93555</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="12">
+        <f>SUM(D5:D36)</f>
+        <v>94607</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1240,7 +1408,7 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1252,7 +1420,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -252,7 +252,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年7月22日（木）まで）</t>
+    <t>　　（県合計・令和3年7月29日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -275,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +338,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -480,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,9 +563,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,6 +570,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,11 +870,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -878,30 +888,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1306,7 +1316,9 @@
       <c r="C37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="11">
+        <v>158</v>
+      </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
@@ -1317,7 +1329,9 @@
       <c r="C38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="20">
+        <v>119</v>
+      </c>
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5">
@@ -1328,7 +1342,9 @@
       <c r="C39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="20">
+        <v>120</v>
+      </c>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5">
@@ -1339,7 +1355,9 @@
       <c r="C40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="11">
+        <v>229</v>
+      </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
@@ -1350,7 +1368,9 @@
       <c r="C41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="11">
+        <v>173</v>
+      </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
@@ -1361,7 +1381,9 @@
       <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="11">
+        <v>188</v>
+      </c>
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
@@ -1372,43 +1394,112 @@
       <c r="C43" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="29">
+        <v>174</v>
+      </c>
       <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="25" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>44400</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4">
+        <v>44401</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4">
+        <v>44402</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4">
+        <v>44403</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4">
+        <v>44404</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17"/>
+      <c r="B49" s="4">
+        <v>44405</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4">
+        <v>44406</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="18"/>
+      <c r="B51" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="12">
-        <f>SUM(D5:D36)</f>
-        <v>94607</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="13"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="12">
+        <f>SUM(D5:D43)</f>
+        <v>95768</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1416,11 +1507,21 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -557,10 +557,16 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -570,12 +576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,8 +873,8 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -888,30 +888,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -926,10 +926,10 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="5">
         <v>696</v>
       </c>
@@ -937,10 +937,10 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="7">
         <v>3256</v>
       </c>
@@ -948,10 +948,10 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7">
         <v>9961</v>
       </c>
@@ -959,10 +959,10 @@
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7">
         <v>6961</v>
       </c>
@@ -970,10 +970,10 @@
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7">
         <v>3019</v>
       </c>
@@ -981,10 +981,10 @@
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7">
         <v>5404</v>
       </c>
@@ -992,10 +992,10 @@
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="7">
         <v>6809</v>
       </c>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="7">
         <v>3782</v>
       </c>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="7">
         <v>2862</v>
       </c>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="12">
         <v>5493</v>
       </c>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="7">
         <v>6204</v>
       </c>
@@ -1049,10 +1049,10 @@
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="7">
         <v>6498</v>
       </c>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="7">
         <v>4304</v>
       </c>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="7">
         <v>5609</v>
       </c>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="19" spans="1:5" ht="28.5" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="7">
         <v>7799</v>
       </c>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="20" spans="1:5" ht="28.5" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="7">
         <v>8503</v>
       </c>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="7">
         <v>5399</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="C43" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="23">
         <v>174</v>
       </c>
       <c r="E43" s="21"/>
@@ -1407,7 +1407,9 @@
       <c r="C44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="20"/>
+      <c r="D44" s="20">
+        <v>144</v>
+      </c>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5">
@@ -1418,7 +1420,9 @@
       <c r="C45" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="20"/>
+      <c r="D45" s="20">
+        <v>149</v>
+      </c>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5">
@@ -1429,7 +1433,9 @@
       <c r="C46" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="20"/>
+      <c r="D46" s="20">
+        <v>190</v>
+      </c>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5">
@@ -1440,7 +1446,9 @@
       <c r="C47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="11">
+        <v>299</v>
+      </c>
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5">
@@ -1451,7 +1459,9 @@
       <c r="C48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="11">
+        <v>243</v>
+      </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5">
@@ -1462,7 +1472,9 @@
       <c r="C49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="11">
+        <v>260</v>
+      </c>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
@@ -1473,18 +1485,20 @@
       <c r="C50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="11">
+        <v>337</v>
+      </c>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="18"/>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="12">
-        <f>SUM(D5:D43)</f>
-        <v>95768</v>
+        <f>SUM(D5:D45)</f>
+        <v>96061</v>
       </c>
       <c r="E51" s="12"/>
     </row>
@@ -1496,6 +1510,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -1507,16 +1531,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -252,7 +252,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年7月29日（木）まで）</t>
+    <t>　　（県合計・令和3年8月5日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -262,7 +262,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -870,11 +870,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1491,22 +1491,113 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4">
+        <v>44407</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="11">
+        <v>307</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17"/>
+      <c r="B52" s="4">
+        <v>44408</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="20">
+        <v>143</v>
+      </c>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17"/>
+      <c r="B53" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="20">
+        <v>158</v>
+      </c>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4">
+        <v>44410</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="20">
+        <v>301</v>
+      </c>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="4">
+        <v>44411</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="11">
+        <v>290</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="17"/>
+      <c r="B56" s="4">
+        <v>44412</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="11">
+        <v>327</v>
+      </c>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="17"/>
+      <c r="B57" s="4">
+        <v>44413</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="11">
+        <v>333</v>
+      </c>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="18"/>
+      <c r="B58" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="12">
-        <f>SUM(D5:D45)</f>
-        <v>96061</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="13"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="12">
+        <f>SUM(D5:D57)</f>
+        <v>99249</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1523,7 +1614,7 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1535,7 +1626,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -252,7 +252,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年8月5日（木）まで）</t>
+    <t>　　（県合計・令和3年8月12日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -262,9 +262,13 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7月</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -566,9 +570,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,6 +577,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,11 +874,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -888,30 +892,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1113,508 +1117,406 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="28.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11">
-        <v>114</v>
-      </c>
-      <c r="E22" s="12"/>
+      <c r="B22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="7">
+        <v>5281</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17"/>
       <c r="B23" s="4">
-        <v>44379</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="11">
-        <v>93</v>
-      </c>
-      <c r="E23" s="12"/>
+        <v>44409</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="20">
+        <v>158</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
-      <c r="B24" s="19">
-        <v>44380</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="20">
-        <v>94</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="B24" s="4">
+        <v>44410</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11">
+        <v>301</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
-      <c r="B25" s="19">
-        <v>44381</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="20">
-        <v>81</v>
-      </c>
-      <c r="E25" s="21"/>
+      <c r="B25" s="4">
+        <v>44411</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11">
+        <v>290</v>
+      </c>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
       <c r="B26" s="4">
-        <v>44382</v>
+        <v>44412</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="11">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
       <c r="B27" s="4">
-        <v>44383</v>
+        <v>44413</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="11">
-        <v>140</v>
+        <v>333</v>
       </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
       <c r="B28" s="4">
-        <v>44384</v>
+        <v>44414</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="11">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="17"/>
       <c r="B29" s="4">
-        <v>44385</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="11">
-        <v>168</v>
-      </c>
-      <c r="E29" s="12"/>
+        <v>44415</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="20">
+        <v>207</v>
+      </c>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="17"/>
       <c r="B30" s="4">
-        <v>44386</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="11">
-        <v>168</v>
-      </c>
-      <c r="E30" s="12"/>
+        <v>44416</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="20">
+        <v>194</v>
+      </c>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
       <c r="B31" s="4">
-        <v>44387</v>
+        <v>44417</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="20">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
       <c r="B32" s="4">
-        <v>44388</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="20">
-        <v>96</v>
-      </c>
-      <c r="E32" s="21"/>
+        <v>44418</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="11">
+        <v>404</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
       <c r="B33" s="4">
-        <v>44389</v>
+        <v>44419</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" s="11">
-        <v>188</v>
+        <v>434</v>
       </c>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="17"/>
       <c r="B34" s="4">
-        <v>44390</v>
+        <v>44420</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" s="11">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="17"/>
       <c r="B35" s="4">
-        <v>44391</v>
+        <v>44421</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11">
-        <v>162</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="17"/>
       <c r="B36" s="4">
-        <v>44392</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="11">
-        <v>158</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
+        <v>44422</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="17"/>
       <c r="B37" s="4">
-        <v>44393</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="11">
-        <v>158</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
+        <v>44423</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="17"/>
       <c r="B38" s="4">
-        <v>44394</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="20">
-        <v>119</v>
-      </c>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:5">
+        <v>44424</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="17"/>
       <c r="B39" s="4">
-        <v>44395</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="20">
-        <v>120</v>
-      </c>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5">
+        <v>44425</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="17"/>
       <c r="B40" s="4">
-        <v>44396</v>
+        <v>44426</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="11">
-        <v>229</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="17"/>
       <c r="B41" s="4">
-        <v>44397</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="11">
-        <v>173</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
+        <v>44427</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="17"/>
       <c r="B42" s="4">
-        <v>44398</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11">
-        <v>188</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
+        <v>44428</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="17"/>
       <c r="B43" s="4">
-        <v>44399</v>
+        <v>44429</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="23">
-        <v>174</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D43" s="20"/>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="17"/>
       <c r="B44" s="4">
-        <v>44400</v>
+        <v>44430</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="20">
-        <v>144</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D44" s="20"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="17"/>
       <c r="B45" s="4">
-        <v>44401</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="20">
-        <v>149</v>
-      </c>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5">
+        <v>44431</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="17"/>
       <c r="B46" s="4">
-        <v>44402</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="20">
-        <v>190</v>
-      </c>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:5">
+        <v>44432</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="17"/>
       <c r="B47" s="4">
-        <v>44403</v>
+        <v>44433</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="11">
-        <v>299</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D47" s="11"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="17"/>
       <c r="B48" s="4">
-        <v>44404</v>
+        <v>44434</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="11">
-        <v>243</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="17"/>
       <c r="B49" s="4">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="11">
-        <v>260</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D49" s="11"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" s="17"/>
       <c r="B50" s="4">
-        <v>44406</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="11">
-        <v>337</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
+        <v>44436</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="17"/>
       <c r="B51" s="4">
-        <v>44407</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="11">
-        <v>307</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
+        <v>44437</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="17"/>
       <c r="B52" s="4">
-        <v>44408</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="20">
-        <v>143</v>
-      </c>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="1:5">
+        <v>44438</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="17"/>
       <c r="B53" s="4">
-        <v>44409</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="20">
-        <v>158</v>
-      </c>
-      <c r="E53" s="21"/>
+        <v>44439</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4">
-        <v>44410</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="20">
-        <v>301</v>
-      </c>
-      <c r="E54" s="21"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="12">
+        <f>SUM(D5:D53)</f>
+        <v>101548</v>
+      </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4">
-        <v>44411</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="11">
-        <v>290</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="4">
-        <v>44412</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="11">
-        <v>327</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="4">
-        <v>44413</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="11">
-        <v>333</v>
-      </c>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="18"/>
-      <c r="B58" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="12">
-        <f>SUM(D5:D57)</f>
-        <v>99249</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="22">
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1622,11 +1524,22 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -252,7 +252,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年8月12日（木）まで）</t>
+    <t>7月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年8月26日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -265,10 +269,6 @@
     <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7月</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -491,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +580,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,11 +877,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD53"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -903,7 +906,7 @@
     </row>
     <row r="2" spans="1:6" ht="24">
       <c r="A2" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1120,7 +1123,7 @@
     <row r="22" spans="1:5" ht="28.5" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="7">
@@ -1284,7 +1287,7 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" hidden="1">
+    <row r="35" spans="1:5">
       <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>44421</v>
@@ -1292,10 +1295,12 @@
       <c r="C35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11">
+        <v>346</v>
+      </c>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" hidden="1">
+    <row r="36" spans="1:5">
       <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>44422</v>
@@ -1303,10 +1308,12 @@
       <c r="C36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20">
+        <v>224</v>
+      </c>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5">
       <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>44423</v>
@@ -1314,10 +1321,12 @@
       <c r="C37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="20">
+        <v>229</v>
+      </c>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:5" hidden="1">
+    <row r="38" spans="1:5">
       <c r="A38" s="17"/>
       <c r="B38" s="4">
         <v>44424</v>
@@ -1325,10 +1334,12 @@
       <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11">
+        <v>552</v>
+      </c>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" hidden="1">
+    <row r="39" spans="1:5">
       <c r="A39" s="17"/>
       <c r="B39" s="4">
         <v>44425</v>
@@ -1336,10 +1347,12 @@
       <c r="C39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="11">
+        <v>419</v>
+      </c>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="17"/>
       <c r="B40" s="4">
         <v>44426</v>
@@ -1347,10 +1360,12 @@
       <c r="C40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="11">
+        <v>503</v>
+      </c>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5">
       <c r="A41" s="17"/>
       <c r="B41" s="4">
         <v>44427</v>
@@ -1358,7 +1373,9 @@
       <c r="C41" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="23">
+        <v>462</v>
+      </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" hidden="1">
@@ -1494,29 +1511,106 @@
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="18"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4">
+        <v>44428</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="4">
+        <v>44429</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="17"/>
+      <c r="B56" s="4">
+        <v>44430</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="17"/>
+      <c r="B57" s="4">
+        <v>44431</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="17"/>
+      <c r="B58" s="4">
+        <v>44432</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="17"/>
+      <c r="B59" s="4">
+        <v>44433</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17"/>
+      <c r="B60" s="4">
+        <v>44434</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="18"/>
+      <c r="B61" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="12">
-        <f>SUM(D5:D53)</f>
-        <v>101548</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="13"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="12">
+        <f>SUM(D5:D60)</f>
+        <v>104283</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1539,7 +1633,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -155,27 +155,6 @@
       <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>木</t>
   </si>
   <si>
     <t>10月</t>
@@ -256,7 +235,25 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年8月26日（木）まで）</t>
+    <t>8月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年9月2日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -266,7 +263,7 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -279,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,26 +339,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -491,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,25 +533,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -577,12 +552,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,11 +846,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -895,30 +864,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -933,10 +902,10 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5">
         <v>696</v>
       </c>
@@ -944,10 +913,10 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="7">
         <v>3256</v>
       </c>
@@ -955,10 +924,10 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7">
         <v>9961</v>
       </c>
@@ -966,10 +935,10 @@
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7">
         <v>6961</v>
       </c>
@@ -977,10 +946,10 @@
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="7">
         <v>3019</v>
       </c>
@@ -988,10 +957,10 @@
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="7">
         <v>5404</v>
       </c>
@@ -999,10 +968,10 @@
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="7">
         <v>6809</v>
       </c>
@@ -1010,10 +979,10 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7">
         <v>3782</v>
       </c>
@@ -1021,10 +990,10 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="B13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="7">
         <v>2862</v>
       </c>
@@ -1032,10 +1001,10 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="25"/>
+      <c r="B14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="12">
         <v>5493</v>
       </c>
@@ -1043,23 +1012,23 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="25"/>
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="21"/>
       <c r="D15" s="7">
         <v>6204</v>
       </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="25"/>
+      <c r="A16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="7">
         <v>6498</v>
       </c>
@@ -1067,10 +1036,10 @@
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="7">
         <v>4304</v>
       </c>
@@ -1078,10 +1047,10 @@
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="25"/>
+      <c r="B18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="7">
         <v>5609</v>
       </c>
@@ -1089,10 +1058,10 @@
     </row>
     <row r="19" spans="1:5" ht="28.5" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="7">
         <v>7799</v>
       </c>
@@ -1100,10 +1069,10 @@
     </row>
     <row r="20" spans="1:5" ht="28.5" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="25"/>
+      <c r="B20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>8503</v>
       </c>
@@ -1111,10 +1080,10 @@
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="25"/>
+      <c r="B21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="7">
         <v>5399</v>
       </c>
@@ -1122,495 +1091,80 @@
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="25"/>
+      <c r="B22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="21"/>
       <c r="D22" s="7">
         <v>5281</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="28.5" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="4">
-        <v>44409</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="20">
-        <v>158</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="B23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17"/>
       <c r="B24" s="4">
-        <v>44410</v>
+        <v>44440</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="11">
-        <v>301</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
       <c r="B25" s="4">
-        <v>44411</v>
+        <v>44441</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="11">
-        <v>290</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17"/>
-      <c r="B26" s="4">
-        <v>44412</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="11">
-        <v>327</v>
+      <c r="A26" s="18"/>
+      <c r="B26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="12">
+        <f>SUM(D5:D25)</f>
+        <v>97840</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="17"/>
-      <c r="B27" s="4">
-        <v>44413</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="11">
-        <v>333</v>
-      </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="17"/>
-      <c r="B28" s="4">
-        <v>44414</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="11">
-        <v>368</v>
-      </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="17"/>
-      <c r="B29" s="4">
-        <v>44415</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="20">
-        <v>207</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="4">
-        <v>44416</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="20">
-        <v>194</v>
-      </c>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="4">
-        <v>44417</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="20">
-        <v>250</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="4">
-        <v>44418</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="11">
-        <v>404</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="4">
-        <v>44419</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11">
-        <v>434</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="4">
-        <v>44420</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="11">
-        <v>442</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="17"/>
-      <c r="B35" s="4">
-        <v>44421</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="11">
-        <v>346</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="17"/>
-      <c r="B36" s="4">
-        <v>44422</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20">
-        <v>224</v>
-      </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="4">
-        <v>44423</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="20">
-        <v>229</v>
-      </c>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="4">
-        <v>44424</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="11">
-        <v>552</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="17"/>
-      <c r="B39" s="4">
-        <v>44425</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="11">
-        <v>419</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="4">
-        <v>44426</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11">
-        <v>503</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4">
-        <v>44427</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="23">
-        <v>462</v>
-      </c>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="4">
-        <v>44428</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4">
-        <v>44429</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
-        <v>44430</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="4">
-        <v>44431</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" hidden="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="4">
-        <v>44432</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4">
-        <v>44433</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" hidden="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4">
-        <v>44434</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="4">
-        <v>44435</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="4">
-        <v>44436</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="1:5" hidden="1">
-      <c r="A51" s="17"/>
-      <c r="B51" s="4">
-        <v>44437</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="1:5" hidden="1">
-      <c r="A52" s="17"/>
-      <c r="B52" s="4">
-        <v>44438</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5" hidden="1">
-      <c r="A53" s="17"/>
-      <c r="B53" s="4">
-        <v>44439</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4">
-        <v>44428</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4">
-        <v>44429</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="4">
-        <v>44430</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="4">
-        <v>44431</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="17"/>
-      <c r="B58" s="4">
-        <v>44432</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="17"/>
-      <c r="B59" s="4">
-        <v>44433</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="4">
-        <v>44434</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="12"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="18"/>
-      <c r="B61" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="12">
-        <f>SUM(D5:D60)</f>
-        <v>104283</v>
-      </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1619,21 +1173,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -265,6 +265,41 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -340,12 +375,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -475,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,13 +577,13 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,6 +593,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,11 +890,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -902,10 +946,10 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="5">
         <v>696</v>
       </c>
@@ -913,10 +957,10 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="7">
         <v>3256</v>
       </c>
@@ -924,10 +968,10 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="7">
         <v>9961</v>
       </c>
@@ -935,10 +979,10 @@
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="7">
         <v>6961</v>
       </c>
@@ -946,10 +990,10 @@
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="7">
         <v>3019</v>
       </c>
@@ -957,10 +1001,10 @@
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="7">
         <v>5404</v>
       </c>
@@ -968,10 +1012,10 @@
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="7">
         <v>6809</v>
       </c>
@@ -979,10 +1023,10 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7">
         <v>3782</v>
       </c>
@@ -990,10 +1034,10 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="7">
         <v>2862</v>
       </c>
@@ -1001,10 +1045,10 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="12">
         <v>5493</v>
       </c>
@@ -1012,10 +1056,10 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="7">
         <v>6204</v>
       </c>
@@ -1025,10 +1069,10 @@
       <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="7">
         <v>6498</v>
       </c>
@@ -1036,10 +1080,10 @@
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7">
         <v>4304</v>
       </c>
@@ -1047,10 +1091,10 @@
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="7">
         <v>5609</v>
       </c>
@@ -1058,10 +1102,10 @@
     </row>
     <row r="19" spans="1:5" ht="28.5" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="7">
         <v>7799</v>
       </c>
@@ -1069,10 +1113,10 @@
     </row>
     <row r="20" spans="1:5" ht="28.5" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="7">
         <v>8503</v>
       </c>
@@ -1080,10 +1124,10 @@
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="7">
         <v>5399</v>
       </c>
@@ -1091,10 +1135,10 @@
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="7">
         <v>5281</v>
       </c>
@@ -1102,11 +1146,13 @@
     </row>
     <row r="23" spans="1:5" ht="28.5" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="7">
+        <v>11370</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
@@ -1117,7 +1163,9 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11">
+        <v>430</v>
+      </c>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
@@ -1128,43 +1176,112 @@
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11">
+        <v>377</v>
+      </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="4">
+        <v>44442</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="17"/>
+      <c r="B27" s="4">
+        <v>44443</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="17"/>
+      <c r="B28" s="4">
+        <v>44444</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="17"/>
+      <c r="B29" s="4">
+        <v>44445</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="17"/>
+      <c r="B30" s="4">
+        <v>44446</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="17"/>
+      <c r="B31" s="4">
+        <v>44447</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="4">
+        <v>44448</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="18"/>
+      <c r="B33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="12">
+      <c r="C33" s="22"/>
+      <c r="D33" s="12">
         <f>SUM(D5:D25)</f>
-        <v>97840</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="13"/>
+        <v>110017</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1174,11 +1291,21 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -253,22 +253,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年9月2日（木）まで）</t>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>金</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
@@ -300,6 +284,45 @@
     <t>火</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年9月16日（木）まで）</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -586,6 +609,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,9 +619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,11 +913,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -908,30 +931,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1187,9 +1210,11 @@
         <v>44442</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="11">
+        <v>404</v>
+      </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
@@ -1198,9 +1223,11 @@
         <v>44443</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D27" s="11">
+        <v>234</v>
+      </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
@@ -1209,9 +1236,11 @@
         <v>44444</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="D28" s="11">
+        <v>197</v>
+      </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
@@ -1220,9 +1249,11 @@
         <v>44445</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D29" s="11">
+        <v>377</v>
+      </c>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
@@ -1231,9 +1262,11 @@
         <v>44446</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D30" s="11">
+        <v>324</v>
+      </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
@@ -1244,7 +1277,9 @@
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11">
+        <v>331</v>
+      </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
@@ -1255,33 +1290,136 @@
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11">
+        <v>345</v>
+      </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="4">
+        <v>44449</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="11">
+        <v>384</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="17"/>
+      <c r="B34" s="4">
+        <v>44450</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="11">
+        <v>196</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17"/>
+      <c r="B35" s="4">
+        <v>44451</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="11">
+        <v>193</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17"/>
+      <c r="B36" s="4">
+        <v>44452</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="11">
+        <v>375</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17"/>
+      <c r="B37" s="4">
+        <v>44453</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="11">
+        <v>308</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="17"/>
+      <c r="B38" s="4">
+        <v>44454</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="11">
+        <v>320</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17"/>
+      <c r="B39" s="4">
+        <v>44455</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="11">
+        <v>280</v>
+      </c>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="18"/>
+      <c r="B40" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="12">
-        <f>SUM(D5:D25)</f>
-        <v>110017</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="12">
+        <f>SUM(D5:D39)</f>
+        <v>114285</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1291,21 +1429,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\20_調査相談G\01_調査チーム\□毎日更新表\98 Excel\センター相談件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -311,7 +311,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　　（県合計・令和3年9月16日（木）まで）</t>
+    <t>　　（県合計・令和3年9月23日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -324,6 +324,10 @@
     <rPh sb="17" eb="18">
       <t>モク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>木</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -609,9 +613,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,6 +620,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,11 +917,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -931,30 +935,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1387,39 +1391,120 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4">
+        <v>44456</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="11">
+        <v>265</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4">
+        <v>44457</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="11">
+        <v>182</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4">
+        <v>44458</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="11">
+        <v>173</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4">
+        <v>44459</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="11">
+        <v>179</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>44460</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="11">
+        <v>293</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4">
+        <v>44461</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="11">
+        <v>264</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4">
+        <v>44462</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="11">
+        <v>152</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="18"/>
+      <c r="B47" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="12">
-        <f>SUM(D5:D39)</f>
-        <v>114285</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="13"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="12">
+        <f>SUM(D5:D46)</f>
+        <v>115793</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1429,11 +1514,21 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/xlsx/150002_niigata_covid19_call_center.xlsx
+++ b/dist/xlsx/150002_niigata_covid19_call_center.xlsx
@@ -15,7 +15,7 @@
     <sheet name="センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">センター相談件数!$A$1:$E$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">センター相談件数!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -239,13 +239,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>水</t>
-    <rPh sb="0" eb="1">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>木</t>
     <rPh sb="0" eb="1">
       <t>モク</t>
@@ -281,20 +274,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
     <t>火</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>火</t>
   </si>
   <si>
     <t>水</t>
@@ -303,15 +289,17 @@
     <t>木</t>
   </si>
   <si>
+    <t>9月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>土</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>　　（県合計・令和3年9月23日（木）まで）</t>
+  </si>
+  <si>
+    <t>　　（県合計・令和3年10月14日（木）まで）</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -321,13 +309,9 @@
     <rPh sb="7" eb="9">
       <t>レイワ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="18" eb="19">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>木</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -917,11 +901,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -946,7 +930,7 @@
     </row>
     <row r="2" spans="1:6" ht="24">
       <c r="A2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1182,329 +1166,410 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="28.5" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="4">
-        <v>44440</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="11">
-        <v>430</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="B24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="7">
+        <v>8056</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
       <c r="B25" s="4">
-        <v>44441</v>
+        <v>44470</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="11">
-        <v>377</v>
+        <v>159</v>
       </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17"/>
       <c r="B26" s="4">
-        <v>44442</v>
-      </c>
-      <c r="C26" s="4" t="s">
+        <v>44471</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="11">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17"/>
       <c r="B27" s="4">
-        <v>44443</v>
+        <v>44472</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="11">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17"/>
       <c r="B28" s="4">
-        <v>44444</v>
-      </c>
-      <c r="C28" s="20" t="s">
+        <v>44473</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="11">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="17"/>
       <c r="B29" s="4">
-        <v>44445</v>
+        <v>44474</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="11">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="17"/>
       <c r="B30" s="4">
-        <v>44446</v>
+        <v>44475</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
       <c r="B31" s="4">
-        <v>44447</v>
+        <v>44476</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="11">
-        <v>331</v>
+        <v>148</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="17"/>
       <c r="B32" s="4">
-        <v>44448</v>
+        <v>44477</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="11">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="17"/>
       <c r="B33" s="4">
-        <v>44449</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>44478</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D33" s="11">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="17"/>
       <c r="B34" s="4">
-        <v>44450</v>
+        <v>44479</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D34" s="11">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="17"/>
       <c r="B35" s="4">
-        <v>44451</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>38</v>
+        <v>44480</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D35" s="11">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="17"/>
       <c r="B36" s="4">
-        <v>44452</v>
+        <v>44481</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="11">
-        <v>375</v>
+        <v>149</v>
       </c>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="17"/>
       <c r="B37" s="4">
-        <v>44453</v>
+        <v>44482</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="17"/>
       <c r="B38" s="4">
-        <v>44454</v>
+        <v>44483</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="11">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="17"/>
       <c r="B39" s="4">
-        <v>44455</v>
+        <v>44484</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="11">
-        <v>280</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="17"/>
       <c r="B40" s="4">
-        <v>44456</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="11">
-        <v>265</v>
-      </c>
+        <v>44485</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="17"/>
       <c r="B41" s="4">
-        <v>44457</v>
+        <v>44486</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="11">
-        <v>182</v>
-      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="17"/>
       <c r="B42" s="4">
-        <v>44458</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="11">
-        <v>173</v>
-      </c>
+        <v>44487</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="11"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="17"/>
       <c r="B43" s="4">
-        <v>44459</v>
+        <v>44488</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="11">
-        <v>179</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="17"/>
       <c r="B44" s="4">
-        <v>44460</v>
+        <v>44489</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="11">
-        <v>293</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="17"/>
       <c r="B45" s="4">
-        <v>44461</v>
+        <v>44490</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="11">
-        <v>264</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="12"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="17"/>
       <c r="B46" s="4">
-        <v>44462</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="11">
-        <v>152</v>
-      </c>
+        <v>44491</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="1:5" hidden="1">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4">
+        <v>44492</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" hidden="1">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4">
+        <v>44493</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="4">
+        <v>44494</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" hidden="1">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4">
+        <v>44495</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4">
+        <v>44496</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
+      <c r="A52" s="17"/>
+      <c r="B52" s="4">
+        <v>44497</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
+      <c r="A53" s="17"/>
+      <c r="B53" s="4">
+        <v>44498</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" hidden="1">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4">
+        <v>44499</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" hidden="1">
+      <c r="A55" s="17"/>
+      <c r="B55" s="4">
+        <v>44500</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="18"/>
+      <c r="B56" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="12">
-        <f>SUM(D5:D46)</f>
-        <v>115793</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="13"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="12">
+        <f>SUM(D5:D55)</f>
+        <v>119293</v>
+      </c>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1513,6 +1578,7 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1528,7 +1594,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>